--- a/美国大学信息/2015CS学校整理.xlsx
+++ b/美国大学信息/2015CS学校整理.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
   <si>
     <t>http://financialaid.ncsu.edu/</t>
   </si>
@@ -72,307 +72,353 @@
     <t>https://students.ucsd.edu/</t>
   </si>
   <si>
+    <t>https://www.ttu.edu/</t>
+  </si>
+  <si>
+    <t>University of Texas Arlington(UTA)</t>
+  </si>
+  <si>
+    <t>http://www.uta.edu/</t>
+  </si>
+  <si>
+    <t>University of Texas - Austin (utexas)</t>
+  </si>
+  <si>
+    <t>http://www.utexas.edu/</t>
+  </si>
+  <si>
+    <t>Southern Methodist University(smu)</t>
+  </si>
+  <si>
+    <t>https://www.smu.edu</t>
+  </si>
+  <si>
+    <t>Iowa State University (ISU)</t>
+  </si>
+  <si>
+    <t>http://www.iastate.edu/</t>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+  </si>
+  <si>
+    <t>https://uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>The University of Illinois at Urbana-Champaign (UIUC)</t>
+  </si>
+  <si>
+    <t>http://illinois.edu/</t>
+  </si>
+  <si>
+    <t>the University of Michigan (umich)</t>
+  </si>
+  <si>
+    <t>https://www.umich.edu/</t>
+  </si>
+  <si>
+    <t>http://www.usc.edu/</t>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology(gatech)</t>
+  </si>
+  <si>
+    <t>http://www.finaid.gatech.edu/</t>
+  </si>
+  <si>
+    <t>Illinois Institute of Technology(IIT)</t>
+  </si>
+  <si>
+    <t>http://admissions.iit.edu/graduate/finances/tuition-and-fees</t>
+  </si>
+  <si>
+    <t>http://www.scu.edu/financialaid/Cost-of-Attendance.cfm</t>
+  </si>
+  <si>
+    <t>University of California, Santa Barbara(UCSB)</t>
+  </si>
+  <si>
+    <t>http://admissions.sa.ucsb.edu/cost/cost-of-attendance</t>
+  </si>
+  <si>
+    <t>https://www.ofas.uci.edu/content/costs.aspx?nav=5</t>
+  </si>
+  <si>
+    <t>Syracuse(syr)</t>
+  </si>
+  <si>
+    <t>$46,258</t>
+  </si>
+  <si>
+    <t>http://www.syr.edu/gradschool/em/pdfs/costs.pdf</t>
+  </si>
+  <si>
+    <t>University Of Pennsylvania (upenn)</t>
+  </si>
+  <si>
+    <t>http://www.seas.upenn.edu/prospective-students/graduate/admissions/pay.php</t>
+  </si>
+  <si>
+    <t>Trustees of Dartmouth College(dartmouth)</t>
+  </si>
+  <si>
+    <t>http://admissions.dartmouth.edu/financial-aid/cost-attendance/cost-attendance</t>
+  </si>
+  <si>
+    <t>University of Massachusetts Amherst(umass)</t>
+  </si>
+  <si>
+    <t>https://www.umass.edu/umfa/undergraduates/costs</t>
+  </si>
+  <si>
+    <t>http://financialaid.oregonstate.edu/review_costofattendance</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh(pitt)</t>
+  </si>
+  <si>
+    <t>https://oafa.pitt.edu/costs/</t>
+  </si>
+  <si>
+    <t>University of Florida(ufl)</t>
+  </si>
+  <si>
+    <t>http://www.sfa.ufl.edu/basics/cost-of-attendance/</t>
+  </si>
+  <si>
+    <t>Nebraska Wesleyan University(NWU)</t>
+  </si>
+  <si>
+    <t>https://www.nebrwesleyan.edu/business-office/tuition-and-fees</t>
+  </si>
+  <si>
+    <t>University of Virginia(UVA)</t>
+  </si>
+  <si>
+    <t>http://sfs.virginia.edu/cost/14-15#GRAD12</t>
+  </si>
+  <si>
+    <t>https://www.admissions.ucla.edu/prospect/budget.htm</t>
+  </si>
+  <si>
+    <t>http://mse.isri.cmu.edu/software-engineering/web4-distance/MSIT-SE/index.html</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>WUSTL</t>
+  </si>
+  <si>
+    <t>cornell</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purdue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Wisconsin—​Madison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Washington </t>
+  </si>
+  <si>
+    <t>The University of North carolina(UNC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Minnesota—​Twin Cities </t>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>https://www.cs.wisc.edu/academics/graduate-programs/guidebook/ms-requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Wisconsin (wisc)</t>
+  </si>
+  <si>
+    <t>University of California—​Los Angeles(UCLA)</t>
+  </si>
+  <si>
+    <t>CMU-MSIT-SE</t>
+  </si>
+  <si>
+    <t>RICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California—​Davis </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JHU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffalo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UW-Seattle(Tocama), </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandeis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StonyBrook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://applygrad-ini.cs.cmu.edu/apply/programs.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North Caronina State University(NCSU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The University of texas at Dallas(UTD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California Irvine(UCI)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sealed envelopes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas A&amp;M University(TAMU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>One unofficial transcript from each previously attended college or university</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oregon State University(OSU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California San Diego(UCSD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Official transcripts are not required until you are offered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Southern California(USC)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Official Transcripts from all colleges and universities attended.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northeastern University(NEU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unofficial scanned copies of undergraduate/graduate transcripts to be uploaded to the online application</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科非四年制的才需要吗</t>
+  </si>
+  <si>
+    <t>cmu-ini-Kobe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uchicago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Jose State University(SJSU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU-Ebiz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU-SV-SE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec. 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>January 15th</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Texas Tech University(TTU)</t>
-  </si>
-  <si>
-    <t>https://www.ttu.edu/</t>
-  </si>
-  <si>
-    <t>University of Texas Arlington(UTA)</t>
-  </si>
-  <si>
-    <t>http://www.uta.edu/</t>
-  </si>
-  <si>
-    <t>University of Texas - Austin (utexas)</t>
-  </si>
-  <si>
-    <t>http://www.utexas.edu/</t>
-  </si>
-  <si>
-    <t>Southern Methodist University(smu)</t>
-  </si>
-  <si>
-    <t>https://www.smu.edu</t>
-  </si>
-  <si>
-    <t>Iowa State University (ISU)</t>
-  </si>
-  <si>
-    <t>http://www.iastate.edu/</t>
-  </si>
-  <si>
-    <t>University of Waterloo</t>
-  </si>
-  <si>
-    <t>https://uwaterloo.ca</t>
-  </si>
-  <si>
-    <t>The University of Illinois at Urbana-Champaign (UIUC)</t>
-  </si>
-  <si>
-    <t>http://illinois.edu/</t>
-  </si>
-  <si>
-    <t>the University of Michigan (umich)</t>
-  </si>
-  <si>
-    <t>https://www.umich.edu/</t>
-  </si>
-  <si>
-    <t>http://www.usc.edu/</t>
-  </si>
-  <si>
-    <t>Georgia Institute of Technology(gatech)</t>
-  </si>
-  <si>
-    <t>http://www.finaid.gatech.edu/</t>
-  </si>
-  <si>
-    <t>Illinois Institute of Technology(IIT)</t>
-  </si>
-  <si>
-    <t>http://admissions.iit.edu/graduate/finances/tuition-and-fees</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Santa Clara University(SCU)</t>
-  </si>
-  <si>
-    <t>http://www.scu.edu/financialaid/Cost-of-Attendance.cfm</t>
-  </si>
-  <si>
-    <t>University of California, Santa Barbara(UCSB)</t>
-  </si>
-  <si>
-    <t>http://admissions.sa.ucsb.edu/cost/cost-of-attendance</t>
-  </si>
-  <si>
-    <t>https://www.ofas.uci.edu/content/costs.aspx?nav=5</t>
-  </si>
-  <si>
-    <t>Syracuse(syr)</t>
-  </si>
-  <si>
-    <t>$46,258</t>
-  </si>
-  <si>
-    <t>http://www.syr.edu/gradschool/em/pdfs/costs.pdf</t>
-  </si>
-  <si>
-    <t>University Of Pennsylvania (upenn)</t>
-  </si>
-  <si>
-    <t>http://www.seas.upenn.edu/prospective-students/graduate/admissions/pay.php</t>
-  </si>
-  <si>
-    <t>Trustees of Dartmouth College(dartmouth)</t>
-  </si>
-  <si>
-    <t>http://admissions.dartmouth.edu/financial-aid/cost-attendance/cost-attendance</t>
-  </si>
-  <si>
-    <t>University of Massachusetts Amherst(umass)</t>
-  </si>
-  <si>
-    <t>https://www.umass.edu/umfa/undergraduates/costs</t>
-  </si>
-  <si>
-    <t>http://financialaid.oregonstate.edu/review_costofattendance</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh(pitt)</t>
-  </si>
-  <si>
-    <t>https://oafa.pitt.edu/costs/</t>
-  </si>
-  <si>
-    <t>University of Florida(ufl)</t>
-  </si>
-  <si>
-    <t>http://www.sfa.ufl.edu/basics/cost-of-attendance/</t>
-  </si>
-  <si>
-    <t>Nebraska Wesleyan University(NWU)</t>
-  </si>
-  <si>
-    <t>https://www.nebrwesleyan.edu/business-office/tuition-and-fees</t>
-  </si>
-  <si>
-    <t>University of Virginia(UVA)</t>
-  </si>
-  <si>
-    <t>http://sfs.virginia.edu/cost/14-15#GRAD12</t>
-  </si>
-  <si>
-    <t>https://www.admissions.ucla.edu/prospect/budget.htm</t>
-  </si>
-  <si>
-    <t>CMU-Ebiz</t>
-  </si>
-  <si>
-    <t>CMU-SV-SE</t>
-  </si>
-  <si>
-    <t>http://mse.isri.cmu.edu/software-engineering/web4-distance/MSIT-SE/index.html</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>SBU</t>
-  </si>
-  <si>
-    <t>WUSTL</t>
-  </si>
-  <si>
-    <t>cornell</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purdue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Wisconsin—​Madison </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Washington </t>
-  </si>
-  <si>
-    <t>The University of North carolina(UNC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Minnesota—​Twin Cities </t>
-  </si>
-  <si>
-    <t>Brown University</t>
-  </si>
-  <si>
-    <t>https://www.cs.wisc.edu/academics/graduate-programs/guidebook/ms-requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> University of Wisconsin (wisc)</t>
-  </si>
-  <si>
-    <t>University of California—​Los Angeles(UCLA)</t>
-  </si>
-  <si>
-    <t>CMU-MSIT-SE</t>
-  </si>
-  <si>
-    <t>RICE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">University of California—​Davis </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JHU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buffalo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UW-Seattle(Tocama), </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>brandeis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StonyBrook</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://applygrad-ini.cs.cmu.edu/apply/programs.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>North Caronina State University(NCSU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Jose State University(SJSU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The University of texas at Dallas(UTD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of California Irvine(UCI)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sealed envelopes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texas A&amp;M University(TAMU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>One unofficial transcript from each previously attended college or university</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oregon State University(OSU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of California San Diego(UCSD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Official transcripts are not required until you are offered</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Southern California(USC)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Official Transcripts from all colleges and universities attended.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northeastern University(NEU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unofficial scanned copies of undergraduate/graduate transcripts to be uploaded to the online application</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本科非四年制的才需要吗</t>
-  </si>
-  <si>
-    <t>cmu-ini-Kobe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GWU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uchicago</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec. 15    </t>
+  </si>
+  <si>
+    <t>December 15th</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jan.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Jan. 01) Mar. 01</t>
+  </si>
+  <si>
+    <t>Utah</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>UCF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec. 15</t>
   </si>
 </sst>
 </file>
@@ -382,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +473,18 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -442,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -476,6 +534,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -484,7 +557,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -546,13 +619,95 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -861,40 +1016,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI62"/>
+  <dimension ref="A1:AK65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+      <selection activeCell="G16" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="53.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6">
-        <v>41603</v>
+        <v>27493</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="22">
+        <v>42036</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -921,40 +1083,50 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
-        <v>27493</v>
+        <v>31000</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="G3" s="22">
+        <v>42125</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C4" s="5">
+        <v>29396</v>
+      </c>
       <c r="D4" s="6">
-        <v>29758</v>
+        <v>36906</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="22"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -982,42 +1154,45 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
-        <v>31000</v>
+        <v>38733</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="5">
-        <v>29396</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="6">
-        <v>36906</v>
+        <v>57216</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>95</v>
+      <c r="G6" s="22">
+        <v>42019</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1044,37 +1219,45 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6">
-        <v>38733</v>
+        <v>60000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G7" s="22">
+        <v>42170</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
-        <v>54402</v>
+        <v>65895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="22">
+        <v>42022</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1101,74 +1284,86 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6">
-        <v>57216</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>65895</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="G9" s="22">
+        <v>42064</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6">
-        <v>60000</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>65895</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="G10" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6">
-        <v>65895</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6">
-        <v>65895</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="C12" s="9">
+        <v>28211</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6">
-        <v>65895</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>31502</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1197,32 +1392,39 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
-    </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
-        <v>65895</v>
+        <v>39822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="8"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="22">
+        <v>42095</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1251,162 +1453,160 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
-    </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="9">
-        <v>28211</v>
-      </c>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="8"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="G16" s="22">
+        <v>42109</v>
+      </c>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="5">
-        <v>39880</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6">
+        <v>29758</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B18" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11">
-        <v>22891</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="13">
-        <v>30075</v>
-      </c>
-      <c r="D20" s="11">
-        <v>29310</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11">
-        <v>30000</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="6">
+        <v>54402</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6">
+        <v>41148</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B20" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B21" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B22" s="10" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11">
-        <v>31502</v>
+        <v>41603</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B23" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11">
-        <v>33092</v>
+        <v>56686</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="13">
-        <v>21986</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C24" s="10"/>
       <c r="D24" s="11">
-        <v>34400</v>
+        <v>65895</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="13">
-        <v>29607</v>
-      </c>
-      <c r="D25" s="11">
-        <v>34982</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="C25" s="10">
+        <v>39880</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B26" s="10" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="11">
-        <v>38140</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B27" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11">
-        <v>39822</v>
+        <v>22891</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="13">
-        <v>38990</v>
+        <v>30075</v>
       </c>
       <c r="D28" s="11">
-        <v>40594</v>
+        <v>29310</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>54</v>
@@ -1441,30 +1641,32 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
-    </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+    </row>
+    <row r="29" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B29" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11">
-        <v>41148</v>
+        <v>30000</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="1"/>
       <c r="B30" s="10" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11">
-        <v>42007</v>
+        <v>33092</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1496,33 +1698,36 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
-    </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+    </row>
+    <row r="31" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="13">
+        <v>21986</v>
+      </c>
       <c r="D31" s="11">
-        <v>45000</v>
+        <v>34400</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="13">
+        <v>29607</v>
+      </c>
       <c r="D32" s="11">
-        <v>45972</v>
+        <v>34982</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1554,60 +1759,62 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
-    </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+    </row>
+    <row r="33" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="13">
-        <v>33386</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="11">
-        <v>47548</v>
+        <v>38140</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B34" s="10" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C34" s="13">
-        <v>26044</v>
+        <v>38990</v>
       </c>
       <c r="D34" s="11">
-        <v>48604</v>
+        <v>40594</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B35" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11">
-        <v>48737</v>
+        <v>42007</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="1"/>
       <c r="B36" s="10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11">
-        <v>50100</v>
+        <v>45000</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1637,20 +1844,20 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
-    </row>
-    <row r="37" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+    </row>
+    <row r="37" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="1"/>
       <c r="B37" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="13">
-        <v>21311</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="11">
-        <v>50360</v>
+        <v>45972</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1682,18 +1889,22 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
-    </row>
-    <row r="38" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+    </row>
+    <row r="38" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
       <c r="B38" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="C38" s="13">
+        <v>33386</v>
+      </c>
       <c r="D38" s="11">
-        <v>53284</v>
+        <v>47548</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1725,18 +1936,22 @@
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
-    </row>
-    <row r="39" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+    </row>
+    <row r="39" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="1"/>
       <c r="B39" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="C39" s="13">
+        <v>26044</v>
+      </c>
       <c r="D39" s="11">
-        <v>56686</v>
+        <v>48604</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1768,90 +1983,96 @@
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
-    </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+    </row>
+    <row r="40" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B40" s="10" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11">
-        <v>58606</v>
+        <v>48737</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="13">
-        <v>43024</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="11">
-        <v>62146</v>
+        <v>50100</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B42" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="C42" s="13">
+        <v>21311</v>
+      </c>
       <c r="D42" s="11">
-        <v>63259</v>
+        <v>50360</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B43" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="11">
-        <v>64840</v>
+        <v>53284</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="10" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11">
-        <v>67044</v>
+        <v>58606</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="11" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="C45" s="13">
+        <v>43024</v>
+      </c>
+      <c r="D45" s="11">
+        <v>62146</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="1"/>
       <c r="B46" s="10" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="10" t="s">
-        <v>77</v>
+      <c r="D46" s="11">
+        <v>63259</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1883,15 +2104,21 @@
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
-    </row>
-    <row r="47" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+    </row>
+    <row r="47" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
       <c r="B47" s="10" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="10"/>
+      <c r="D47" s="11">
+        <v>64840</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1922,65 +2149,77 @@
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
-    </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+    </row>
+    <row r="48" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B48" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="13">
-        <v>48922</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11">
+        <v>67044</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B49" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" ht="120.75">
       <c r="B50" s="15" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E50" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="17.25">
       <c r="B51" s="15" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="21"/>
-    </row>
-    <row r="52" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:37" ht="17.25">
       <c r="B52" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="C52" s="17">
+        <v>48922</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:37" ht="17.25">
       <c r="B53" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C53" s="14"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="1:35" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D53" s="16"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:37" s="2" customFormat="1" ht="17.25">
       <c r="A54" s="1"/>
       <c r="B54" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="17">
-        <v>46408</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2011,51 +2250,52 @@
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
-    </row>
-    <row r="55" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+    </row>
+    <row r="55" spans="1:37" ht="17.25">
       <c r="B55" s="15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C55" s="14"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:37" ht="17.25">
       <c r="B56" s="15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="20"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" ht="17.25">
       <c r="B57" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="14"/>
-    </row>
-    <row r="58" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C57" s="17">
+        <v>46408</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:37" ht="17.25">
       <c r="B58" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="18">
-        <v>28425</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:37" s="2" customFormat="1" ht="17.25">
       <c r="A59" s="1"/>
       <c r="B59" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="18">
-        <v>23680</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -2085,71 +2325,95 @@
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
-    </row>
-    <row r="60" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+    </row>
+    <row r="60" spans="1:37" ht="17.25">
       <c r="B60" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-    </row>
-    <row r="61" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C60" s="14"/>
+    </row>
+    <row r="61" spans="1:37" ht="17.25">
       <c r="B61" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B62" s="15" t="s">
-        <v>107</v>
+        <v>68</v>
+      </c>
+      <c r="C61" s="18">
+        <v>28425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" ht="17.25">
+      <c r="B62" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="18">
+        <v>23680</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" ht="17.25">
+      <c r="B63" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:37" ht="17.25">
+      <c r="B64" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="17.25">
+      <c r="B65" s="24" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
-    <sortState ref="A2:F61">
-      <sortCondition sortBy="cellColor" ref="B1" dxfId="0"/>
+  <autoFilter ref="B1:G1">
+    <sortState ref="B2:G65">
+      <sortCondition sortBy="cellColor" ref="B1" dxfId="1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E39" r:id="rId3"/>
-    <hyperlink ref="E37" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="E25" r:id="rId8"/>
-    <hyperlink ref="E23" r:id="rId9" display="https://www.suny.edu/"/>
-    <hyperlink ref="E33" r:id="rId10"/>
-    <hyperlink ref="E34" r:id="rId11" display="https://students.asu.edu/"/>
-    <hyperlink ref="E8" r:id="rId12"/>
-    <hyperlink ref="E22" r:id="rId13"/>
-    <hyperlink ref="E21" r:id="rId14"/>
-    <hyperlink ref="E19" r:id="rId15"/>
-    <hyperlink ref="E43" r:id="rId16" display="https://www.smu.edu/"/>
-    <hyperlink ref="E24" r:id="rId17"/>
-    <hyperlink ref="E31" r:id="rId18" display="https://uwaterloo.ca/"/>
-    <hyperlink ref="E38" r:id="rId19"/>
-    <hyperlink ref="E41" r:id="rId20"/>
-    <hyperlink ref="E9" r:id="rId21"/>
-    <hyperlink ref="E32" r:id="rId22"/>
-    <hyperlink ref="E29" r:id="rId23"/>
-    <hyperlink ref="E27" r:id="rId24"/>
-    <hyperlink ref="E36" r:id="rId25"/>
-    <hyperlink ref="E6" r:id="rId26"/>
-    <hyperlink ref="E45" r:id="rId27"/>
-    <hyperlink ref="E42" r:id="rId28"/>
-    <hyperlink ref="E44" r:id="rId29"/>
-    <hyperlink ref="E30" r:id="rId30"/>
-    <hyperlink ref="E7" r:id="rId31"/>
-    <hyperlink ref="E28" r:id="rId32"/>
-    <hyperlink ref="E20" r:id="rId33"/>
-    <hyperlink ref="E26" r:id="rId34"/>
-    <hyperlink ref="E35" r:id="rId35" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
-    <hyperlink ref="E40" r:id="rId36"/>
-    <hyperlink ref="E14" r:id="rId37"/>
-    <hyperlink ref="E11" r:id="rId38"/>
+    <hyperlink ref="E22" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E23" r:id="rId3"/>
+    <hyperlink ref="E42" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E17" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="E32" r:id="rId8"/>
+    <hyperlink ref="E30" r:id="rId9" display="https://www.suny.edu/"/>
+    <hyperlink ref="E38" r:id="rId10"/>
+    <hyperlink ref="E39" r:id="rId11" display="https://students.asu.edu/"/>
+    <hyperlink ref="E18" r:id="rId12"/>
+    <hyperlink ref="E13" r:id="rId13"/>
+    <hyperlink ref="E29" r:id="rId14"/>
+    <hyperlink ref="E27" r:id="rId15"/>
+    <hyperlink ref="E47" r:id="rId16" display="https://www.smu.edu/"/>
+    <hyperlink ref="E31" r:id="rId17"/>
+    <hyperlink ref="E36" r:id="rId18" display="https://uwaterloo.ca/"/>
+    <hyperlink ref="E43" r:id="rId19"/>
+    <hyperlink ref="E45" r:id="rId20"/>
+    <hyperlink ref="E6" r:id="rId21"/>
+    <hyperlink ref="E37" r:id="rId22"/>
+    <hyperlink ref="E19" r:id="rId23"/>
+    <hyperlink ref="E14" r:id="rId24"/>
+    <hyperlink ref="E41" r:id="rId25"/>
+    <hyperlink ref="E4" r:id="rId26"/>
+    <hyperlink ref="E49" r:id="rId27"/>
+    <hyperlink ref="E46" r:id="rId28"/>
+    <hyperlink ref="E48" r:id="rId29"/>
+    <hyperlink ref="E35" r:id="rId30"/>
+    <hyperlink ref="E5" r:id="rId31"/>
+    <hyperlink ref="E34" r:id="rId32"/>
+    <hyperlink ref="E28" r:id="rId33"/>
+    <hyperlink ref="E33" r:id="rId34"/>
+    <hyperlink ref="E40" r:id="rId35" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
+    <hyperlink ref="E44" r:id="rId36"/>
+    <hyperlink ref="E24" r:id="rId37"/>
+    <hyperlink ref="E8" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
@@ -2162,7 +2426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2175,7 +2439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/美国大学信息/2015CS学校整理.xlsx
+++ b/美国大学信息/2015CS学校整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="2040" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,24 +12,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
   <si>
     <t>http://financialaid.ncsu.edu/</t>
   </si>
   <si>
-    <t>http://www.sjsu.edu/</t>
-  </si>
-  <si>
-    <t>New Yoke University(NYU) Polytechnic school</t>
-  </si>
-  <si>
     <t>http://engineering.nyu.edu/</t>
   </si>
   <si>
@@ -45,9 +39,6 @@
     <t>http://www.utdallas.edu/</t>
   </si>
   <si>
-    <t>University of Colorado Boulder(CU Boulder)</t>
-  </si>
-  <si>
     <t>http://bursar.colorado.edu/</t>
   </si>
   <si>
@@ -117,33 +108,21 @@
     <t>https://www.umich.edu/</t>
   </si>
   <si>
-    <t>http://www.usc.edu/</t>
-  </si>
-  <si>
     <t>Georgia Institute of Technology(gatech)</t>
   </si>
   <si>
     <t>http://www.finaid.gatech.edu/</t>
   </si>
   <si>
-    <t>Illinois Institute of Technology(IIT)</t>
-  </si>
-  <si>
     <t>http://admissions.iit.edu/graduate/finances/tuition-and-fees</t>
   </si>
   <si>
-    <t>http://www.scu.edu/financialaid/Cost-of-Attendance.cfm</t>
-  </si>
-  <si>
     <t>University of California, Santa Barbara(UCSB)</t>
   </si>
   <si>
     <t>http://admissions.sa.ucsb.edu/cost/cost-of-attendance</t>
   </si>
   <si>
-    <t>https://www.ofas.uci.edu/content/costs.aspx?nav=5</t>
-  </si>
-  <si>
     <t>Syracuse(syr)</t>
   </si>
   <si>
@@ -253,10 +232,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">University of California—​Davis </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>G</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -281,18 +256,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://applygrad-ini.cs.cmu.edu/apply/programs.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>North Caronina State University(NCSU)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>WES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The University of texas at Dallas(UTD)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -301,18 +268,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sealed envelopes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Texas A&amp;M University(TAMU)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>One unofficial transcript from each previously attended college or university</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Oregon State University(OSU)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -321,29 +280,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Official transcripts are not required until you are offered</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>University of Southern California(USC)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Official Transcripts from all colleges and universities attended.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Northeastern University(NEU)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Unofficial scanned copies of undergraduate/graduate transcripts to be uploaded to the online application</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本科非四年制的才需要吗</t>
-  </si>
-  <si>
     <t>cmu-ini-Kobe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,18 +312,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Dec. 15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>January 15th</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01/15/2016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Texas Tech University(TTU)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -394,20 +326,6 @@
   <si>
     <t>SIT</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec. 15    </t>
-  </si>
-  <si>
-    <t>December 15th</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jan.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Jan. 01) Mar. 01</t>
   </si>
   <si>
     <t>Utah</t>
@@ -418,7 +336,77 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Dec. 15</t>
+    <t>Illinois Institute of Technology(IIT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://ga.soe.ucsc.edu/admissions</t>
+  </si>
+  <si>
+    <t>T100 (95)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Colorado Boulder(CU Boulder)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California—​Davis </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Yoke University(NYU) Poly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCSC CS/CE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apps.grad.uci.edu/ogsa/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://secure.csumentor.edu/applications/csu/CSU_Grad_2016/CSU_Grad_20161.asp?r=2&amp;ac=3977</t>
+  </si>
+  <si>
+    <t>https://www.ece.cmu.edu/prospective/graduate/application/summary.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.commonapp.org/ca4app#!d//Status/?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄成绩单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usc.edu/admission/graduate/applyonline/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usc.edu/admission/graduate/international/index.html</t>
+  </si>
+  <si>
+    <t>https://applygrad-ini.cs.cmu.edu/apply/index.php?domain=83</t>
+  </si>
+  <si>
+    <t>WES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www1.cs.ucr.edu/education/graduate/admissions/</t>
+  </si>
+  <si>
+    <t>https://services.adcom.uci.edu/approgress/progress/viewApplication.htm#recommender</t>
   </si>
 </sst>
 </file>
@@ -486,7 +474,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +551,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -565,158 +559,134 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1016,47 +986,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK65"/>
+  <dimension ref="A1:AK66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G15:G16"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="39" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6">
-        <v>27493</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="22">
-        <v>42036</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="B2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
+        <v>65895</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="24">
+        <v>42352</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1086,47 +1051,47 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
-        <v>31000</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B3" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="22">
-        <v>42125</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="1" t="s">
-        <v>86</v>
+      <c r="C3" s="31">
+        <v>29396</v>
+      </c>
+      <c r="D3" s="32">
+        <v>36906</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="34">
+        <v>42353</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="5">
-        <v>29396</v>
-      </c>
-      <c r="D4" s="6">
-        <v>36906</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>40</v>
+      <c r="A4" s="1"/>
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
+        <v>54402</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="22"/>
+      <c r="G4" s="25">
+        <v>42353</v>
+      </c>
+      <c r="H4" s="39"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1150,49 +1115,49 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-    </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
-        <v>38733</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="22"/>
+    </row>
+    <row r="5" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="24">
+        <v>42353</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6">
-        <v>57216</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8">
+        <v>41603</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="22">
-        <v>42019</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="G6" s="25">
+        <v>42353</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1223,50 +1188,43 @@
       <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
-        <v>60000</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="22">
-        <v>42170</v>
-      </c>
-      <c r="H7" s="22"/>
+      <c r="B7" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="24">
+        <v>42353</v>
+      </c>
     </row>
     <row r="8" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32">
         <v>65895</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="22">
-        <v>42022</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="E8" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="34">
+        <v>42368</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1288,144 +1246,179 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
-        <v>65895</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="G9" s="22">
-        <v>42064</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6">
-        <v>65895</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="G10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <v>29758</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25">
+        <v>42370</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44" t="s">
         <v>98</v>
       </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="24">
+        <v>42372</v>
+      </c>
+      <c r="H10" s="39">
+        <v>89</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="9">
-        <v>28211</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B13" s="5" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32">
+        <v>57216</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="34">
+        <v>42384</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
+      <c r="J11" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+    </row>
+    <row r="12" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
         <v>31502</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="24">
+        <v>42384</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32">
+        <v>39822</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="34">
+        <v>42384</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6">
-        <v>39822</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="22">
+        <v>29607</v>
+      </c>
+      <c r="D14" s="5">
+        <v>34982</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="24">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="22">
+        <v>26044</v>
+      </c>
+      <c r="D15" s="5">
+        <v>48604</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="22">
-        <v>42095</v>
-      </c>
-      <c r="H15" s="1"/>
+      <c r="G15" s="24">
+        <v>42384</v>
+      </c>
+      <c r="H15" s="41"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1436,184 +1429,261 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-    </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="22">
-        <v>42109</v>
-      </c>
-      <c r="H16" s="22"/>
+    </row>
+    <row r="16" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B16" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="38">
+        <v>28211</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36"/>
+      <c r="G16" s="34">
+        <v>42384</v>
+      </c>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6">
-        <v>29758</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B18" s="5" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="34">
+        <v>42387</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <v>38733</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="24">
+        <v>42400</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32">
+        <v>27493</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="34">
+        <v>42401</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="34">
+        <v>42430</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B21" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6">
-        <v>54402</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B19" s="5" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="45"/>
+      <c r="G21" s="24">
+        <v>42444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5">
+        <v>56686</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="24">
+        <v>42475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
+        <v>31000</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="24">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5">
+        <v>60000</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="24">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5">
+        <v>41148</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="24">
+        <v>42491</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="G26" s="24">
+        <v>42491</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6">
-        <v>41148</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="E27" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B20" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B22" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11">
-        <v>41603</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11">
-        <v>56686</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11">
-        <v>65895</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="10">
-        <v>39880</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11">
-        <v>22891</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="13">
-        <v>30075</v>
-      </c>
-      <c r="D28" s="11">
-        <v>29310</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="B28" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1645,32 +1715,30 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11">
-        <v>30000</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>19</v>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8">
+        <v>65895</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11">
-        <v>33092</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="B30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="7">
+        <v>39880</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1702,36 +1770,28 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="13">
-        <v>21986</v>
-      </c>
-      <c r="D31" s="11">
-        <v>34400</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="B31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="13">
-        <v>29607</v>
-      </c>
-      <c r="D32" s="11">
-        <v>34982</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>9</v>
+      <c r="B32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8">
+        <v>22891</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1763,60 +1823,60 @@
       <c r="AK32" s="1"/>
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11">
-        <v>38140</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>56</v>
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="10">
+        <v>30075</v>
+      </c>
+      <c r="D33" s="8">
+        <v>29310</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B34" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="13">
-        <v>38990</v>
-      </c>
-      <c r="D34" s="11">
-        <v>40594</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>52</v>
+      <c r="B34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8">
+        <v>30000</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B35" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11">
-        <v>42007</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>49</v>
+      <c r="B35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8">
+        <v>33092</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11">
-        <v>45000</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="B36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="10">
+        <v>21986</v>
+      </c>
+      <c r="D36" s="8">
+        <v>34400</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1849,19 +1909,19 @@
     </row>
     <row r="37" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11">
-        <v>45972</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>34</v>
+      <c r="B37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8">
+        <v>38140</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1894,21 +1954,21 @@
     </row>
     <row r="38" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="13">
-        <v>33386</v>
-      </c>
-      <c r="D38" s="11">
-        <v>47548</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>13</v>
+      <c r="B38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="10">
+        <v>38990</v>
+      </c>
+      <c r="D38" s="8">
+        <v>40594</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1941,21 +2001,19 @@
     </row>
     <row r="39" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="13">
-        <v>26044</v>
-      </c>
-      <c r="D39" s="11">
-        <v>48604</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>15</v>
+      <c r="B39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8">
+        <v>42007</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1987,96 +2045,99 @@
       <c r="AK39" s="1"/>
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11">
+      <c r="B40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8">
+        <v>45000</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8">
+        <v>45972</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="10">
+        <v>33386</v>
+      </c>
+      <c r="D42" s="8">
+        <v>47548</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8">
         <v>48737</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11">
+      <c r="E43" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8">
         <v>50100</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B42" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="13">
+      <c r="E44" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="10">
         <v>21311</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D45" s="8">
         <v>50360</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11">
-        <v>53284</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B44" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11">
-        <v>58606</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="13">
-        <v>43024</v>
-      </c>
-      <c r="D45" s="11">
-        <v>62146</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>31</v>
+      <c r="E45" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11">
-        <v>63259</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>45</v>
+      <c r="B46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8">
+        <v>53284</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2109,19 +2170,19 @@
     </row>
     <row r="47" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11">
-        <v>64840</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>23</v>
+      <c r="B47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8">
+        <v>58606</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="39"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2153,76 +2214,86 @@
       <c r="AK47" s="1"/>
     </row>
     <row r="48" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11">
+      <c r="B48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="10">
+        <v>43024</v>
+      </c>
+      <c r="D48" s="8">
+        <v>62146</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8">
+        <v>63259</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" ht="17.25">
+      <c r="B50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="13">
+        <v>64840</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="45.75">
+      <c r="B51" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="13">
         <v>67044</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37" ht="120.75">
-      <c r="B50" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" ht="17.25">
-      <c r="B51" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="1:37" ht="17.25">
-      <c r="B52" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="17">
-        <v>48922</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="14"/>
+      <c r="E51" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" ht="69">
+      <c r="B52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="53" spans="1:37" ht="17.25">
-      <c r="B53" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="14"/>
+      <c r="B53" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:37" s="2" customFormat="1" ht="17.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="14"/>
+      <c r="B54" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="14">
+        <v>48922</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="39"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -2254,50 +2325,48 @@
       <c r="AK54" s="1"/>
     </row>
     <row r="55" spans="1:37" ht="17.25">
-      <c r="B55" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="14"/>
+      <c r="B55" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:37" ht="17.25">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:37" ht="17.25">
+      <c r="B57" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:37" ht="17.25">
+      <c r="B58" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="1:37" ht="17.25">
-      <c r="B57" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="17">
+      <c r="C58" s="14">
         <v>46408</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-    </row>
-    <row r="58" spans="1:37" ht="17.25">
-      <c r="B58" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="1:37" s="2" customFormat="1" ht="17.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="B59" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="39"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -2329,91 +2398,102 @@
       <c r="AK59" s="1"/>
     </row>
     <row r="60" spans="1:37" ht="17.25">
-      <c r="B60" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="14"/>
+      <c r="B60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="61" spans="1:37" ht="17.25">
-      <c r="B61" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="18">
+      <c r="B61" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="11"/>
+    </row>
+    <row r="62" spans="1:37" ht="17.25">
+      <c r="B62" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="15">
         <v>28425</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="17.25">
-      <c r="B62" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="18">
+    <row r="63" spans="1:37" ht="17.25">
+      <c r="B63" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="15">
         <v>23680</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="17.25">
-      <c r="B63" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-    </row>
     <row r="64" spans="1:37" ht="17.25">
-      <c r="B64" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="B64" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="2:2" ht="17.25">
-      <c r="B65" s="24" t="s">
-        <v>101</v>
+      <c r="B65" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="17.25">
+      <c r="B66" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G1">
-    <sortState ref="B2:G65">
-      <sortCondition sortBy="cellColor" ref="B1" dxfId="1"/>
+  <autoFilter ref="A1:R1">
+    <sortState ref="A2:R66">
+      <sortCondition ref="G1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E23" r:id="rId3"/>
-    <hyperlink ref="E42" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E17" r:id="rId6"/>
-    <hyperlink ref="E3" r:id="rId7"/>
-    <hyperlink ref="E32" r:id="rId8"/>
-    <hyperlink ref="E30" r:id="rId9" display="https://www.suny.edu/"/>
-    <hyperlink ref="E38" r:id="rId10"/>
-    <hyperlink ref="E39" r:id="rId11" display="https://students.asu.edu/"/>
-    <hyperlink ref="E18" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="E29" r:id="rId14"/>
-    <hyperlink ref="E27" r:id="rId15"/>
-    <hyperlink ref="E47" r:id="rId16" display="https://www.smu.edu/"/>
-    <hyperlink ref="E31" r:id="rId17"/>
-    <hyperlink ref="E36" r:id="rId18" display="https://uwaterloo.ca/"/>
-    <hyperlink ref="E43" r:id="rId19"/>
-    <hyperlink ref="E45" r:id="rId20"/>
-    <hyperlink ref="E6" r:id="rId21"/>
-    <hyperlink ref="E37" r:id="rId22"/>
-    <hyperlink ref="E19" r:id="rId23"/>
-    <hyperlink ref="E14" r:id="rId24"/>
-    <hyperlink ref="E41" r:id="rId25"/>
-    <hyperlink ref="E4" r:id="rId26"/>
-    <hyperlink ref="E49" r:id="rId27"/>
-    <hyperlink ref="E46" r:id="rId28"/>
-    <hyperlink ref="E48" r:id="rId29"/>
-    <hyperlink ref="E35" r:id="rId30"/>
-    <hyperlink ref="E5" r:id="rId31"/>
-    <hyperlink ref="E34" r:id="rId32"/>
-    <hyperlink ref="E28" r:id="rId33"/>
-    <hyperlink ref="E33" r:id="rId34"/>
-    <hyperlink ref="E40" r:id="rId35" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
-    <hyperlink ref="E44" r:id="rId36"/>
-    <hyperlink ref="E24" r:id="rId37"/>
-    <hyperlink ref="E8" r:id="rId38"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E22" r:id="rId2"/>
+    <hyperlink ref="E45" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E23" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7"/>
+    <hyperlink ref="E35" r:id="rId8" display="https://www.suny.edu/"/>
+    <hyperlink ref="E42" r:id="rId9"/>
+    <hyperlink ref="E15" r:id="rId10" display="https://students.asu.edu/"/>
+    <hyperlink ref="E4" r:id="rId11"/>
+    <hyperlink ref="E12" r:id="rId12"/>
+    <hyperlink ref="E34" r:id="rId13"/>
+    <hyperlink ref="E32" r:id="rId14"/>
+    <hyperlink ref="E50" r:id="rId15" display="https://www.smu.edu/"/>
+    <hyperlink ref="E36" r:id="rId16"/>
+    <hyperlink ref="E40" r:id="rId17" display="https://uwaterloo.ca/"/>
+    <hyperlink ref="E46" r:id="rId18"/>
+    <hyperlink ref="E48" r:id="rId19"/>
+    <hyperlink ref="E41" r:id="rId20"/>
+    <hyperlink ref="E25" r:id="rId21"/>
+    <hyperlink ref="E44" r:id="rId22"/>
+    <hyperlink ref="E27" r:id="rId23"/>
+    <hyperlink ref="E49" r:id="rId24"/>
+    <hyperlink ref="E51" r:id="rId25"/>
+    <hyperlink ref="E39" r:id="rId26"/>
+    <hyperlink ref="E18" r:id="rId27"/>
+    <hyperlink ref="E38" r:id="rId28"/>
+    <hyperlink ref="E33" r:id="rId29"/>
+    <hyperlink ref="E37" r:id="rId30"/>
+    <hyperlink ref="E43" r:id="rId31" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
+    <hyperlink ref="E47" r:id="rId32"/>
+    <hyperlink ref="E29" r:id="rId33"/>
+    <hyperlink ref="E10" r:id="rId34"/>
+    <hyperlink ref="E3" r:id="rId35"/>
+    <hyperlink ref="E8" r:id="rId36"/>
+    <hyperlink ref="E13" r:id="rId37" location="!d//Status/?"/>
+    <hyperlink ref="E11" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>

--- a/美国大学信息/2015CS学校整理.xlsx
+++ b/美国大学信息/2015CS学校整理.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>http://financialaid.ncsu.edu/</t>
   </si>
@@ -30,15 +30,9 @@
     <t>http://www.unc.edu/</t>
   </si>
   <si>
-    <t>http://www.northeastern.edu/</t>
-  </si>
-  <si>
     <t>https://www.tamu.edu/</t>
   </si>
   <si>
-    <t>http://www.utdallas.edu/</t>
-  </si>
-  <si>
     <t>http://bursar.colorado.edu/</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>https://students.asu.edu</t>
   </si>
   <si>
-    <t>https://students.ucsd.edu/</t>
-  </si>
-  <si>
     <t>https://www.ttu.edu/</t>
   </si>
   <si>
@@ -260,10 +251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>The University of texas at Dallas(UTD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>University of California Irvine(UCI)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,14 +271,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Northeastern University(NEU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmu-ini-Kobe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GWU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,10 +296,6 @@
   </si>
   <si>
     <t>Santa Clara University(SCU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -354,10 +329,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">University of California—​Davis </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>New Yoke University(NYU) Poly</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -370,43 +341,134 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.ece.cmu.edu/prospective/graduate/application/summary.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.commonapp.org/ca4app#!d//Status/?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄成绩单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usc.edu/admission/graduate/applyonline/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://services.adcom.uci.edu/approgress/progress/viewApplication.htm#recommender</t>
+  </si>
+  <si>
+    <t>http://www1.cs.ucr.edu/education/graduate/admissions/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ini.cmu.edu/degrees/kobe_msit-is/apply.html</t>
+  </si>
+  <si>
+    <t>http://www.usc.edu/admission/graduate/international/index.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmu-ini-Kobe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G 4852</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G 4851</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G 4834</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G 4839</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2074 (Carnegie Mellon U), department code #0404 (Information Sciences).
+#8569 (CMU-Interdisciplinary Studies), department code #99 (department not listed).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://applygrad-ini.cs.cmu.edu/apply/index.php?domain=83</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northeastern University(NEU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4836, and the CSE Department Code is 78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSUEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California—​Davis(UCD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The University of texas at Dallas(UTD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=ucdgrad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>https://secure.csumentor.edu/applications/csu/CSU_Grad_2016/CSU_Grad_20161.asp?r=2&amp;ac=3977</t>
-  </si>
-  <si>
-    <t>https://www.ece.cmu.edu/prospective/graduate/application/summary.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.commonapp.org/ca4app#!d//Status/?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄成绩单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.usc.edu/admission/graduate/applyonline/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.usc.edu/admission/graduate/international/index.html</t>
-  </si>
-  <si>
-    <t>https://applygrad-ini.cs.cmu.edu/apply/index.php?domain=83</t>
-  </si>
-  <si>
-    <t>WES</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www1.cs.ucr.edu/education/graduate/admissions/</t>
-  </si>
-  <si>
-    <t>https://services.adcom.uci.edu/approgress/progress/viewApplication.htm#recommender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradsis.ucr.edu/gradsis/GSIS_LOGIN.Login_student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://utdallas-ecs.edu.185r.net/application/login/index.php?id=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cmuj.jp/admission_en.html</t>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,7 +613,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -652,9 +714,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -679,6 +738,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -986,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK66"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -999,9 +1070,9 @@
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="38" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1009,7 +1080,7 @@
     <row r="2" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
@@ -1020,7 +1091,7 @@
       <c r="G2" s="24">
         <v>42352</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1053,7 +1124,7 @@
     </row>
     <row r="3" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="31">
         <v>29396</v>
@@ -1062,36 +1133,41 @@
         <v>36906</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="G3" s="34">
         <v>42353</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="30" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8">
+      <c r="B4" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32">
         <v>54402</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G4" s="25">
         <v>42353</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1119,7 +1195,7 @@
     <row r="5" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="19"/>
@@ -1128,7 +1204,7 @@
       <c r="G5" s="24">
         <v>42353</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1143,7 +1219,7 @@
     <row r="6" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
@@ -1156,7 +1232,7 @@
       <c r="G6" s="25">
         <v>42353</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1189,7 +1265,7 @@
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B7" s="26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
@@ -1201,20 +1277,22 @@
     <row r="8" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="32">
         <v>65895</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="30"/>
+        <v>97</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="G8" s="34">
         <v>42368</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
@@ -1247,39 +1325,39 @@
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5">
         <v>29758</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="25">
         <v>42370</v>
       </c>
-      <c r="H9" s="39" t="s">
-        <v>107</v>
+      <c r="H9" s="38" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44" t="s">
-        <v>98</v>
+      <c r="B10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="24">
         <v>42372</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>89</v>
       </c>
       <c r="I10" s="1"/>
@@ -1296,25 +1374,27 @@
     <row r="11" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="30"/>
       <c r="B11" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32">
         <v>57216</v>
       </c>
       <c r="E11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="30"/>
       <c r="G11" s="34">
         <v>42384</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>106</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
@@ -1328,20 +1408,20 @@
     <row r="12" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
         <v>31502</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="24">
         <v>42384</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1356,22 +1436,24 @@
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="32">
         <v>39822</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="30"/>
+        <v>99</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>111</v>
+      </c>
       <c r="G13" s="34">
         <v>42384</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="30" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
@@ -1385,7 +1467,7 @@
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C14" s="22">
         <v>29607</v>
@@ -1394,7 +1476,7 @@
         <v>34982</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" s="24">
         <v>42384</v>
@@ -1403,7 +1485,7 @@
     <row r="15" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="22">
         <v>26044</v>
@@ -1412,13 +1494,13 @@
         <v>48604</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="24">
         <v>42384</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1432,38 +1514,49 @@
     </row>
     <row r="16" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B16" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="38">
+        <v>120</v>
+      </c>
+      <c r="C16" s="37">
         <v>28211</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>112</v>
+      </c>
       <c r="G16" s="34">
         <v>42384</v>
       </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="30"/>
+        <v>115</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>114</v>
+      </c>
       <c r="G17" s="34">
         <v>42387</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>128</v>
+      </c>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
@@ -1475,20 +1568,20 @@
     <row r="18" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5">
         <v>38733</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="24">
         <v>42400</v>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1503,24 +1596,24 @@
     <row r="19" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="32">
         <v>27493</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>105</v>
+      <c r="E19" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="G19" s="34">
         <v>42401</v>
       </c>
-      <c r="H19" s="42"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="30" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -1534,22 +1627,26 @@
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="30"/>
-      <c r="B20" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="30"/>
+      <c r="B20" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>113</v>
+      </c>
       <c r="G20" s="34">
         <v>42430</v>
       </c>
-      <c r="H20" s="40"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>104</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
@@ -1561,19 +1658,19 @@
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="45"/>
+      <c r="B21" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
       <c r="G21" s="24">
         <v>42444</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5">
@@ -1587,33 +1684,36 @@
       </c>
     </row>
     <row r="23" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5">
+      <c r="B23" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32">
         <v>31000</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>5</v>
+      <c r="E23" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="G23" s="24">
         <v>42491</v>
       </c>
+      <c r="I23" s="30" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5">
+      <c r="B24" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32">
         <v>60000</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>3</v>
+      <c r="E24" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="G24" s="24">
         <v>42491</v>
@@ -1622,20 +1722,20 @@
     <row r="25" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5">
         <v>41148</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="24">
         <v>42491</v>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="23"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1647,281 +1747,258 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="G26" s="24">
-        <v>42491</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>99</v>
-      </c>
+    <row r="26" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-    </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8">
+        <v>71</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="24">
+        <v>42491</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+    </row>
+    <row r="30" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8">
         <v>65895</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="E30" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="7">
         <v>39880</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-    </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+    </row>
+    <row r="32" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B32" s="7" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="8">
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8">
         <v>22891</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-    </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="10">
-        <v>30075</v>
-      </c>
-      <c r="D33" s="8">
-        <v>29310</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C34" s="10">
+        <v>30075</v>
+      </c>
       <c r="D34" s="8">
-        <v>30000</v>
+        <v>29310</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B35" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="8">
+        <v>30000</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8">
         <v>33092</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="10">
-        <v>21986</v>
-      </c>
-      <c r="D36" s="8">
-        <v>34400</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C37" s="10">
+        <v>21986</v>
+      </c>
       <c r="D37" s="8">
-        <v>38140</v>
+        <v>34400</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="24"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1955,20 +2032,18 @@
     <row r="38" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="10">
-        <v>38990</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="8">
-        <v>40594</v>
+        <v>38140</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="38"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2004,16 +2079,18 @@
       <c r="B39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="10">
+        <v>38990</v>
+      </c>
       <c r="D39" s="8">
-        <v>42007</v>
+        <v>40594</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2044,145 +2121,145 @@
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" thickBot="1">
+    <row r="40" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="1"/>
       <c r="B40" s="7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="8">
-        <v>45000</v>
+        <v>42007</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
     </row>
     <row r="41" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B41" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="8">
-        <v>45972</v>
+        <v>45000</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="10">
-        <v>33386</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="8">
-        <v>47548</v>
+        <v>45972</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C43" s="10">
+        <v>33386</v>
+      </c>
       <c r="D43" s="8">
-        <v>48737</v>
+        <v>47548</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8">
-        <v>50100</v>
+        <v>48737</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B45" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="10">
+        <v>29</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8">
+        <v>50100</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="10">
         <v>21311</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>50360</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8">
-        <v>53284</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
     </row>
     <row r="47" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
       <c r="B47" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8">
-        <v>58606</v>
+        <v>53284</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="39"/>
+      <c r="H47" s="38"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2213,239 +2290,284 @@
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A48" s="1"/>
       <c r="B48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="10">
-        <v>43024</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C48" s="7"/>
       <c r="D48" s="8">
-        <v>62146</v>
+        <v>58606</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
     </row>
     <row r="49" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="C49" s="10">
+        <v>43024</v>
+      </c>
       <c r="D49" s="8">
+        <v>62146</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B50" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8">
         <v>63259</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37" ht="17.25">
-      <c r="B50" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="13">
-        <v>64840</v>
-      </c>
       <c r="E50" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" ht="45.75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="17.25">
       <c r="B51" s="12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="13">
+        <v>64840</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" ht="45.75">
+      <c r="B52" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="13">
         <v>67044</v>
       </c>
-      <c r="E51" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" ht="69">
-      <c r="B52" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37" ht="17.25">
+      <c r="E52" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" ht="69">
       <c r="B53" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:37" s="2" customFormat="1" ht="17.25">
-      <c r="A54" s="1"/>
+      <c r="E53" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" ht="17.25">
       <c r="B54" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="14">
-        <v>48922</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C54" s="11"/>
       <c r="D54" s="13"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-    </row>
-    <row r="55" spans="1:37" ht="17.25">
-      <c r="B55" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="28"/>
+    </row>
+    <row r="55" spans="1:37" s="2" customFormat="1" ht="17.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="14">
+        <v>48922</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
     </row>
     <row r="56" spans="1:37" ht="17.25">
-      <c r="B56" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="11"/>
+      <c r="B56" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="28"/>
     </row>
     <row r="57" spans="1:37" ht="17.25">
       <c r="B57" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C57" s="11"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:37" ht="17.25">
       <c r="B58" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="14">
-        <v>46408</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C58" s="11"/>
       <c r="D58" s="16"/>
       <c r="E58" s="17"/>
     </row>
-    <row r="59" spans="1:37" s="2" customFormat="1" ht="17.25">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:37" ht="17.25">
       <c r="B59" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="C59" s="14">
+        <v>46408</v>
+      </c>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-    </row>
-    <row r="60" spans="1:37" ht="17.25">
+    </row>
+    <row r="60" spans="1:37" s="2" customFormat="1" ht="17.25">
+      <c r="A60" s="1"/>
       <c r="B60" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
     </row>
     <row r="61" spans="1:37" ht="17.25">
       <c r="B61" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C61" s="11"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="62" spans="1:37" ht="17.25">
-      <c r="B62" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="15">
-        <v>28425</v>
-      </c>
+      <c r="B62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:37" ht="17.25">
       <c r="B63" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C63" s="15">
-        <v>23680</v>
+        <v>28425</v>
       </c>
     </row>
     <row r="64" spans="1:37" ht="17.25">
       <c r="B64" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="2:2" ht="17.25">
-      <c r="B65" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="17.25">
-      <c r="B66" s="11" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="C64" s="15">
+        <v>23680</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="17.25">
+      <c r="B65" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="17"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="2:5" ht="17.25">
+      <c r="B66" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="17.25">
+      <c r="B67" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2458,45 +2580,51 @@
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1"/>
     <hyperlink ref="E22" r:id="rId2"/>
-    <hyperlink ref="E45" r:id="rId3"/>
-    <hyperlink ref="E24" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
-    <hyperlink ref="E23" r:id="rId6"/>
-    <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E35" r:id="rId8" display="https://www.suny.edu/"/>
-    <hyperlink ref="E42" r:id="rId9"/>
-    <hyperlink ref="E15" r:id="rId10" display="https://students.asu.edu/"/>
-    <hyperlink ref="E4" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E34" r:id="rId13"/>
-    <hyperlink ref="E32" r:id="rId14"/>
-    <hyperlink ref="E50" r:id="rId15" display="https://www.smu.edu/"/>
-    <hyperlink ref="E36" r:id="rId16"/>
-    <hyperlink ref="E40" r:id="rId17" display="https://uwaterloo.ca/"/>
-    <hyperlink ref="E46" r:id="rId18"/>
-    <hyperlink ref="E48" r:id="rId19"/>
-    <hyperlink ref="E41" r:id="rId20"/>
-    <hyperlink ref="E25" r:id="rId21"/>
-    <hyperlink ref="E44" r:id="rId22"/>
-    <hyperlink ref="E27" r:id="rId23"/>
-    <hyperlink ref="E49" r:id="rId24"/>
-    <hyperlink ref="E51" r:id="rId25"/>
-    <hyperlink ref="E39" r:id="rId26"/>
-    <hyperlink ref="E18" r:id="rId27"/>
-    <hyperlink ref="E38" r:id="rId28"/>
-    <hyperlink ref="E33" r:id="rId29"/>
-    <hyperlink ref="E37" r:id="rId30"/>
-    <hyperlink ref="E43" r:id="rId31" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
-    <hyperlink ref="E47" r:id="rId32"/>
-    <hyperlink ref="E29" r:id="rId33"/>
-    <hyperlink ref="E10" r:id="rId34"/>
-    <hyperlink ref="E3" r:id="rId35"/>
-    <hyperlink ref="E8" r:id="rId36"/>
-    <hyperlink ref="E13" r:id="rId37" location="!d//Status/?"/>
-    <hyperlink ref="E11" r:id="rId38"/>
+    <hyperlink ref="E46" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E14" r:id="rId5"/>
+    <hyperlink ref="E36" r:id="rId6" display="https://www.suny.edu/"/>
+    <hyperlink ref="E43" r:id="rId7"/>
+    <hyperlink ref="E15" r:id="rId8" display="https://students.asu.edu/"/>
+    <hyperlink ref="E12" r:id="rId9"/>
+    <hyperlink ref="E35" r:id="rId10"/>
+    <hyperlink ref="E33" r:id="rId11"/>
+    <hyperlink ref="E51" r:id="rId12" display="https://www.smu.edu/"/>
+    <hyperlink ref="E37" r:id="rId13"/>
+    <hyperlink ref="E41" r:id="rId14" display="https://uwaterloo.ca/"/>
+    <hyperlink ref="E47" r:id="rId15"/>
+    <hyperlink ref="E49" r:id="rId16"/>
+    <hyperlink ref="E42" r:id="rId17"/>
+    <hyperlink ref="E25" r:id="rId18"/>
+    <hyperlink ref="E45" r:id="rId19"/>
+    <hyperlink ref="E28" r:id="rId20"/>
+    <hyperlink ref="E50" r:id="rId21"/>
+    <hyperlink ref="E52" r:id="rId22"/>
+    <hyperlink ref="E40" r:id="rId23"/>
+    <hyperlink ref="E18" r:id="rId24"/>
+    <hyperlink ref="E39" r:id="rId25"/>
+    <hyperlink ref="E34" r:id="rId26"/>
+    <hyperlink ref="E38" r:id="rId27"/>
+    <hyperlink ref="E44" r:id="rId28" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
+    <hyperlink ref="E48" r:id="rId29"/>
+    <hyperlink ref="E30" r:id="rId30"/>
+    <hyperlink ref="E10" r:id="rId31"/>
+    <hyperlink ref="E3" r:id="rId32"/>
+    <hyperlink ref="E8" r:id="rId33"/>
+    <hyperlink ref="E13" r:id="rId34" location="!d//Status/?"/>
+    <hyperlink ref="E11" r:id="rId35"/>
+    <hyperlink ref="J20" r:id="rId36"/>
+    <hyperlink ref="J11" r:id="rId37"/>
+    <hyperlink ref="E17" r:id="rId38"/>
+    <hyperlink ref="E16" r:id="rId39"/>
+    <hyperlink ref="E19" r:id="rId40"/>
+    <hyperlink ref="E20" r:id="rId41"/>
+    <hyperlink ref="E23" r:id="rId42"/>
+    <hyperlink ref="E24" r:id="rId43"/>
+    <hyperlink ref="E4" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
 

--- a/美国大学信息/2015CS学校整理.xlsx
+++ b/美国大学信息/2015CS学校整理.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="2040" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13605" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
   <si>
     <t>http://financialaid.ncsu.edu/</t>
   </si>
   <si>
-    <t>http://engineering.nyu.edu/</t>
-  </si>
-  <si>
     <t>http://www.unc.edu/</t>
   </si>
   <si>
@@ -36,15 +33,6 @@
     <t>http://bursar.colorado.edu/</t>
   </si>
   <si>
-    <t>The State University of New York(suny)</t>
-  </si>
-  <si>
-    <t>https://www.suny.edu</t>
-  </si>
-  <si>
-    <t>The Pennsylvania State University(PSU)</t>
-  </si>
-  <si>
     <t>http://admissions.psu.edu/</t>
   </si>
   <si>
@@ -63,9 +51,6 @@
     <t>http://www.uta.edu/</t>
   </si>
   <si>
-    <t>University of Texas - Austin (utexas)</t>
-  </si>
-  <si>
     <t>http://www.utexas.edu/</t>
   </si>
   <si>
@@ -87,12 +72,6 @@
     <t>https://uwaterloo.ca</t>
   </si>
   <si>
-    <t>The University of Illinois at Urbana-Champaign (UIUC)</t>
-  </si>
-  <si>
-    <t>http://illinois.edu/</t>
-  </si>
-  <si>
     <t>the University of Michigan (umich)</t>
   </si>
   <si>
@@ -108,18 +87,6 @@
     <t>http://admissions.iit.edu/graduate/finances/tuition-and-fees</t>
   </si>
   <si>
-    <t>University of California, Santa Barbara(UCSB)</t>
-  </si>
-  <si>
-    <t>http://admissions.sa.ucsb.edu/cost/cost-of-attendance</t>
-  </si>
-  <si>
-    <t>Syracuse(syr)</t>
-  </si>
-  <si>
-    <t>$46,258</t>
-  </si>
-  <si>
     <t>http://www.syr.edu/gradschool/em/pdfs/costs.pdf</t>
   </si>
   <si>
@@ -129,15 +96,9 @@
     <t>http://www.seas.upenn.edu/prospective-students/graduate/admissions/pay.php</t>
   </si>
   <si>
-    <t>Trustees of Dartmouth College(dartmouth)</t>
-  </si>
-  <si>
     <t>http://admissions.dartmouth.edu/financial-aid/cost-attendance/cost-attendance</t>
   </si>
   <si>
-    <t>University of Massachusetts Amherst(umass)</t>
-  </si>
-  <si>
     <t>https://www.umass.edu/umfa/undergraduates/costs</t>
   </si>
   <si>
@@ -150,12 +111,6 @@
     <t>https://oafa.pitt.edu/costs/</t>
   </si>
   <si>
-    <t>University of Florida(ufl)</t>
-  </si>
-  <si>
-    <t>http://www.sfa.ufl.edu/basics/cost-of-attendance/</t>
-  </si>
-  <si>
     <t>Nebraska Wesleyan University(NWU)</t>
   </si>
   <si>
@@ -177,24 +132,15 @@
     <t>DUKE</t>
   </si>
   <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
     <t>WUSTL</t>
   </si>
   <si>
     <t>cornell</t>
   </si>
   <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
     <t xml:space="preserve">Purdue </t>
   </si>
   <si>
-    <t xml:space="preserve">University of Wisconsin—​Madison </t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Washington </t>
   </si>
   <si>
@@ -251,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>University of California Irvine(UCI)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Texas A&amp;M University(TAMU)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -279,10 +221,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>San Jose State University(SJSU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CMU-Ebiz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -292,10 +230,6 @@
   </si>
   <si>
     <t>Texas Tech University(TTU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Santa Clara University(SCU)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -307,10 +241,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>UCF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Illinois Institute of Technology(IIT)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,14 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apply.commonapp.org/ca4app#!d//Status/?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>寄成绩单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -365,25 +287,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://services.adcom.uci.edu/approgress/progress/viewApplication.htm#recommender</t>
-  </si>
-  <si>
     <t>http://www1.cs.ucr.edu/education/graduate/admissions/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.ini.cmu.edu/degrees/kobe_msit-is/apply.html</t>
-  </si>
-  <si>
     <t>http://www.usc.edu/admission/graduate/international/index.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -420,11 +332,200 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Waive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gradsis.ucr.edu/gradsis/GSIS_LOGIN.Login_student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://utdallas-ecs.edu.185r.net/application/login/index.php?id=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ini.cmu.edu/degrees/kobe_msit-is/apply.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=ucdgrad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Clara University(SCU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.scu.edu/apply/engineering/handler.cfm?event=home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cmuj.jp/admission_en.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trustees of Dartmouth College(dartmouth)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California Irvine(UCI)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gats.ics.uci.edu/tracker/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California—​Davis(UCD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://secure.csumentor.edu/logon.asp?nextpage=%2Fadmissionapp%2Fappmanager%2FCSU_Intl_2016%2Fappmanager%2Easp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Jose State University(SJSU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The University of texas at Dallas(UTD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG 4859</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>4836, and the CSE Department Code is 78</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Waive</t>
+    <t>https://www.cs.stonybrook.edu/admissions/Graduate-Program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston University (BU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bu.edu/cs/graduate/admissions/</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://csgradapps.rice.edu/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syracuse(syr)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cs.rice.edu/academics/graduate-studies/application-process/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.applyyourself.com/?id=sunysb-gs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gradstudy.rutgers.edu/apply/before-you-apply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://services.adcom.uci.edu/approgress/progress/viewApplication.htm#recommender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.scu.edu/ecampus.</t>
+  </si>
+  <si>
+    <t>https://admissionservices.rutgers.edu/graduate/returnUserLogin.app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://engineering.nyu.edu/admissions/graduate/apply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T100 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1274437</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://my.sjsu.edu  </t>
+  </si>
+  <si>
+    <t>Northwestern(NWU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(UIUC)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.grad.illinois.edu/admissions/apply/</t>
+  </si>
+  <si>
+    <t>University of Florida(UFL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cise.ufl.edu/admissions/grad/apply</t>
+  </si>
+  <si>
+    <t>D2ZE5885675</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nxz160630</t>
+  </si>
+  <si>
+    <t>https://you.usc.edu/login/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.applytexas.org/adappc/gen/c_start.WBX</t>
+  </si>
+  <si>
+    <t>https://sis-portal-prod.utdallas.edu/psp/DEPPRD/EMPLOYEE/EMPL_UTD/h/?tab=PAPP_GUEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>011428781 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Pennsylvania State University(PSU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Wisconsin—​Madison </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Texas - Austin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -432,42 +533,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>University of California—​Davis(UCD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The University of texas at Dallas(UTD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=ucdgrad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://secure.csumentor.edu/applications/csu/CSU_Grad_2016/CSU_Grad_20161.asp?r=2&amp;ac=3977</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gradsis.ucr.edu/gradsis/GSIS_LOGIN.Login_student</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://utdallas-ecs.edu.185r.net/application/login/index.php?id=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.applyyourself.com/AYApplicantLogin/fl_ApplicantConnectLogin.asp?id=neu-grad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cmuj.jp/admission_en.html</t>
-  </si>
-  <si>
-    <t>https://apply.grad.ucsd.edu/login</t>
+    <t>University of Central Florida(UCF)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(umass)University of Massachusetts Amherst</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,8 +605,21 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +702,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -688,69 +777,82 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,30 +1159,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK67"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AK66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="38" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="39.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
@@ -1091,7 +1198,7 @@
       <c r="G2" s="24">
         <v>42352</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1122,52 +1229,61 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="27">
+        <v>29396</v>
+      </c>
+      <c r="D3" s="28">
+        <v>36906</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="31">
-        <v>29396</v>
-      </c>
-      <c r="D3" s="32">
-        <v>36906</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="34">
+      <c r="F3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="24">
         <v>42353</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>103</v>
-      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32">
+      <c r="B4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28">
         <v>54402</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>129</v>
+      <c r="E4" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G4" s="25">
         <v>42353</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1192,19 +1308,23 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="8">
+        <v>41603</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="24">
+      <c r="G5" s="25">
         <v>42353</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1218,21 +1338,17 @@
     </row>
     <row r="6" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8">
-        <v>41603</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="B6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>42353</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1264,45 +1380,43 @@
       <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B7" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="G7" s="24">
+      <c r="B7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8">
+        <v>42007</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="25">
         <v>42353</v>
       </c>
     </row>
     <row r="8" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32">
-        <v>65895</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="34">
-        <v>42368</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="24">
+        <v>42360</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1324,40 +1438,42 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28">
+        <v>65895</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5">
-        <v>29758</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="25">
-        <v>42370</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="F9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="24">
+        <v>42368</v>
+      </c>
+      <c r="R9" s="26"/>
+    </row>
+    <row r="10" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43" t="s">
-        <v>91</v>
+      <c r="B10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="24">
         <v>42372</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="33">
         <v>89</v>
       </c>
       <c r="I10" s="1"/>
@@ -1372,57 +1488,42 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32">
-        <v>57216</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="34">
-        <v>42384</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-    </row>
-    <row r="12" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="10">
+        <v>33386</v>
+      </c>
+      <c r="D11" s="8">
+        <v>47548</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="24">
+        <v>42374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
-        <v>31502</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="B12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="G12" s="24">
         <v>42384</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1434,154 +1535,152 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32">
-        <v>39822</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="34">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28">
+        <v>57216</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="24">
         <v>42384</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="I13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="1">
+        <v>7460027675</v>
+      </c>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="22">
-        <v>29607</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="5">
-        <v>34982</v>
+        <v>31502</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14" s="24">
         <v>42384</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="22">
-        <v>26044</v>
-      </c>
-      <c r="D15" s="5">
-        <v>48604</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1"/>
+    <row r="15" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B15" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28">
+        <v>39822</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G15" s="24">
         <v>42384</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>125</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B16" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="37">
+    </row>
+    <row r="16" spans="1:37" s="26" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="22">
+        <v>29607</v>
+      </c>
+      <c r="D16" s="5">
+        <v>34982</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="24">
+        <v>42384</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:37" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="22">
+        <v>26044</v>
+      </c>
+      <c r="D17" s="5">
+        <v>48604</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="24">
+        <v>42384</v>
+      </c>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B18" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="32">
         <v>28211</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="34">
+      <c r="D18" s="31"/>
+      <c r="E18" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="24">
         <v>42384</v>
       </c>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="34">
-        <v>42387</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
-        <v>38733</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="24">
-        <v>42400</v>
-      </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1591,414 +1690,492 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8">
+        <v>53284</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="24">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10">
+        <v>38990</v>
+      </c>
+      <c r="D20" s="8">
+        <v>40594</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="24">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B21" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="G21" s="24">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="24">
+        <v>42387</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="R22" s="26"/>
+    </row>
+    <row r="23" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="27">
+        <v>39880</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="38">
+        <v>42399</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5">
+        <v>38733</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="24">
+        <v>42400</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B25" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28">
+        <v>27493</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32">
-        <v>27493</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="34">
+      <c r="G25" s="24">
         <v>42401</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-    </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="34">
-        <v>42430</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-    </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="44"/>
-      <c r="G21" s="24">
-        <v>42444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5">
-        <v>56686</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="24">
-        <v>42475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32">
-        <v>31000</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="H25" s="34"/>
+      <c r="I25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="24">
-        <v>42491</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B24" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32">
-        <v>60000</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="24">
-        <v>42491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5">
-        <v>41148</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="24">
-        <v>42491</v>
-      </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:37" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="1"/>
+    </row>
+    <row r="26" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="22">
+        <v>30075</v>
+      </c>
+      <c r="D26" s="5">
+        <v>29310</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="24">
+        <v>42401</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42">
+        <v>29758</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="25">
+        <v>42430</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="24">
+        <v>42430</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="G27" s="24">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+    </row>
+    <row r="29" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="24">
+        <v>42430</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="R29" s="26"/>
+    </row>
+    <row r="30" spans="1:37" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="24">
+        <v>42444</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+    </row>
+    <row r="31" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B31" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42">
+        <v>56686</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="24">
+        <v>42475</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28">
+        <v>31000</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="24">
         <v>42491</v>
       </c>
-      <c r="H27" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-    </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8">
-        <v>65895</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="7">
-        <v>39880</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-    </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8">
-        <v>22891</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+    </row>
+    <row r="33" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5">
+        <v>60000</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="24">
+        <v>42491</v>
+      </c>
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="10">
-        <v>30075</v>
-      </c>
-      <c r="D34" s="8">
-        <v>29310</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5">
+        <v>41148</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="24">
+        <v>42491</v>
+      </c>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8">
-        <v>30000</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8">
-        <v>33092</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="24">
+        <v>42491</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="24">
+        <v>42491</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
     </row>
     <row r="37" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="10">
-        <v>21986</v>
-      </c>
-      <c r="D37" s="8">
-        <v>34400</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>19</v>
+      <c r="B37" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="42">
+        <v>46258</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="38"/>
+      <c r="G37" s="24">
+        <v>42522</v>
+      </c>
+      <c r="H37" s="33"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2031,20 +2208,16 @@
     </row>
     <row r="38" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8">
-        <v>38140</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="B38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="1"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2077,20 +2250,18 @@
     <row r="39" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="1"/>
       <c r="B39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="10">
-        <v>38990</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="8">
-        <v>40594</v>
+        <v>65895</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="38"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2121,348 +2292,351 @@
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B40" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
-      <c r="D40" s="8">
-        <v>42007</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B41" s="7" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="8">
-        <v>45000</v>
+        <v>22891</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B42" s="7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="8">
-        <v>45972</v>
+        <v>30000</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B43" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C43" s="10">
-        <v>33386</v>
+        <v>21986</v>
       </c>
       <c r="D43" s="8">
-        <v>47548</v>
+        <v>34400</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8">
-        <v>48737</v>
+        <v>38140</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A45" s="1"/>
       <c r="B45" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8">
-        <v>50100</v>
+        <v>45000</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B46" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="10">
-        <v>21311</v>
-      </c>
-      <c r="D46" s="8">
-        <v>50360</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+    </row>
+    <row r="46" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5">
+        <v>45972</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+    </row>
+    <row r="47" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B47" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8">
-        <v>53284</v>
-      </c>
-      <c r="E47" s="9" t="s">
+        <v>48737</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="36.75" customHeight="1">
+      <c r="B48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="14">
+        <v>21311</v>
+      </c>
+      <c r="D48" s="13">
+        <v>50360</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="34.5">
+      <c r="B49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="13">
+        <v>58606</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" ht="17.25">
+      <c r="B50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="14">
+        <v>43024</v>
+      </c>
+      <c r="D50" s="13">
+        <v>62146</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="60.75">
+      <c r="B51" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
-    </row>
-    <row r="48" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8">
-        <v>58606</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-    </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="10">
-        <v>43024</v>
-      </c>
-      <c r="D49" s="8">
-        <v>62146</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8">
-        <v>63259</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" ht="17.25">
-      <c r="B51" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="13">
-        <v>64840</v>
+        <v>63259</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" ht="45.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" s="2" customFormat="1" ht="17.25">
+      <c r="A52" s="1"/>
       <c r="B52" s="12" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="13">
+        <v>64840</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+    </row>
+    <row r="53" spans="1:37" ht="45.75">
+      <c r="B53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="13">
         <v>67044</v>
       </c>
-      <c r="E52" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37" ht="69">
-      <c r="B53" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37" ht="17.25">
+      <c r="E53" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" ht="69">
       <c r="B54" s="12" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="1:37" s="2" customFormat="1" ht="17.25">
-      <c r="A55" s="1"/>
+      <c r="E54" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" ht="17.25">
       <c r="B55" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="14">
-        <v>48922</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C55" s="11"/>
       <c r="D55" s="13"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
     </row>
     <row r="56" spans="1:37" ht="17.25">
-      <c r="B56" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="28"/>
-    </row>
-    <row r="57" spans="1:37" ht="17.25">
+      <c r="B56" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="14">
+        <v>48922</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:37" s="2" customFormat="1" ht="17.25">
+      <c r="A57" s="1"/>
       <c r="B57" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C57" s="11"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
     </row>
     <row r="58" spans="1:37" ht="17.25">
       <c r="B58" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="16"/>
@@ -2470,7 +2644,7 @@
     </row>
     <row r="59" spans="1:37" ht="17.25">
       <c r="B59" s="12" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C59" s="14">
         <v>46408</v>
@@ -2478,96 +2652,57 @@
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
     </row>
-    <row r="60" spans="1:37" s="2" customFormat="1" ht="17.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="12" t="s">
-        <v>55</v>
+    <row r="60" spans="1:37" ht="17.25">
+      <c r="B60" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="16"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
     </row>
     <row r="61" spans="1:37" ht="17.25">
-      <c r="B61" s="12" t="s">
-        <v>56</v>
+      <c r="B61" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="16"/>
       <c r="E61" s="17"/>
       <c r="F61" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:37" ht="17.25">
-      <c r="B62" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="15">
+        <v>28425</v>
+      </c>
     </row>
     <row r="63" spans="1:37" ht="17.25">
-      <c r="B63" s="11" t="s">
-        <v>58</v>
+      <c r="B63" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C63" s="15">
-        <v>28425</v>
+        <v>23680</v>
       </c>
     </row>
     <row r="64" spans="1:37" ht="17.25">
       <c r="B64" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="2:2" ht="17.25">
+      <c r="B65" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="17.25">
+      <c r="B66" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C64" s="15">
-        <v>23680</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="17.25">
-      <c r="B65" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="2:5" ht="17.25">
-      <c r="B66" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="17.25">
-      <c r="B67" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2578,58 +2713,69 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E22" r:id="rId2"/>
-    <hyperlink ref="E46" r:id="rId3"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="E36" r:id="rId6" display="https://www.suny.edu/"/>
-    <hyperlink ref="E43" r:id="rId7"/>
-    <hyperlink ref="E15" r:id="rId8" display="https://students.asu.edu/"/>
-    <hyperlink ref="E12" r:id="rId9"/>
-    <hyperlink ref="E35" r:id="rId10"/>
-    <hyperlink ref="E33" r:id="rId11"/>
-    <hyperlink ref="E51" r:id="rId12" display="https://www.smu.edu/"/>
-    <hyperlink ref="E37" r:id="rId13"/>
-    <hyperlink ref="E41" r:id="rId14" display="https://uwaterloo.ca/"/>
-    <hyperlink ref="E47" r:id="rId15"/>
-    <hyperlink ref="E49" r:id="rId16"/>
-    <hyperlink ref="E42" r:id="rId17"/>
-    <hyperlink ref="E25" r:id="rId18"/>
-    <hyperlink ref="E45" r:id="rId19"/>
-    <hyperlink ref="E28" r:id="rId20"/>
-    <hyperlink ref="E50" r:id="rId21"/>
-    <hyperlink ref="E52" r:id="rId22"/>
-    <hyperlink ref="E40" r:id="rId23"/>
-    <hyperlink ref="E18" r:id="rId24"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E48" r:id="rId2"/>
+    <hyperlink ref="E27" r:id="rId3"/>
+    <hyperlink ref="E16" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5"/>
+    <hyperlink ref="E17" r:id="rId6" display="https://students.asu.edu/"/>
+    <hyperlink ref="E14" r:id="rId7"/>
+    <hyperlink ref="E42" r:id="rId8"/>
+    <hyperlink ref="E41" r:id="rId9"/>
+    <hyperlink ref="E52" r:id="rId10" display="https://www.smu.edu/"/>
+    <hyperlink ref="E43" r:id="rId11"/>
+    <hyperlink ref="E45" r:id="rId12" display="https://uwaterloo.ca/"/>
+    <hyperlink ref="E50" r:id="rId13"/>
+    <hyperlink ref="E46" r:id="rId14"/>
+    <hyperlink ref="E34" r:id="rId15"/>
+    <hyperlink ref="E37" r:id="rId16"/>
+    <hyperlink ref="E51" r:id="rId17"/>
+    <hyperlink ref="E53" r:id="rId18"/>
+    <hyperlink ref="E7" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="E20" r:id="rId21"/>
+    <hyperlink ref="E44" r:id="rId22"/>
+    <hyperlink ref="E47" r:id="rId23" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
+    <hyperlink ref="E49" r:id="rId24"/>
     <hyperlink ref="E39" r:id="rId25"/>
-    <hyperlink ref="E34" r:id="rId26"/>
-    <hyperlink ref="E38" r:id="rId27"/>
-    <hyperlink ref="E44" r:id="rId28" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
-    <hyperlink ref="E48" r:id="rId29"/>
-    <hyperlink ref="E30" r:id="rId30"/>
-    <hyperlink ref="E10" r:id="rId31"/>
-    <hyperlink ref="E3" r:id="rId32"/>
-    <hyperlink ref="E8" r:id="rId33"/>
-    <hyperlink ref="E13" r:id="rId34" location="!d//Status/?"/>
-    <hyperlink ref="E11" r:id="rId35"/>
-    <hyperlink ref="J20" r:id="rId36"/>
-    <hyperlink ref="J11" r:id="rId37"/>
-    <hyperlink ref="E17" r:id="rId38"/>
-    <hyperlink ref="E16" r:id="rId39"/>
-    <hyperlink ref="E19" r:id="rId40"/>
-    <hyperlink ref="E20" r:id="rId41"/>
-    <hyperlink ref="E23" r:id="rId42"/>
-    <hyperlink ref="E24" r:id="rId43"/>
-    <hyperlink ref="E4" r:id="rId44"/>
+    <hyperlink ref="E10" r:id="rId26"/>
+    <hyperlink ref="E3" r:id="rId27"/>
+    <hyperlink ref="E9" r:id="rId28"/>
+    <hyperlink ref="E13" r:id="rId29"/>
+    <hyperlink ref="J29" r:id="rId30"/>
+    <hyperlink ref="J13" r:id="rId31"/>
+    <hyperlink ref="E22" r:id="rId32"/>
+    <hyperlink ref="E18" r:id="rId33"/>
+    <hyperlink ref="E29" r:id="rId34"/>
+    <hyperlink ref="E32" r:id="rId35"/>
+    <hyperlink ref="E33" r:id="rId36"/>
+    <hyperlink ref="E4" r:id="rId37"/>
+    <hyperlink ref="E15" r:id="rId38"/>
+    <hyperlink ref="J22" r:id="rId39"/>
+    <hyperlink ref="K22" r:id="rId40"/>
+    <hyperlink ref="K3" r:id="rId41"/>
+    <hyperlink ref="E25" r:id="rId42"/>
+    <hyperlink ref="I12" r:id="rId43"/>
+    <hyperlink ref="E23" r:id="rId44"/>
+    <hyperlink ref="J23" r:id="rId45"/>
+    <hyperlink ref="E12" r:id="rId46"/>
+    <hyperlink ref="J28" r:id="rId47"/>
+    <hyperlink ref="J3" r:id="rId48" location="recommender"/>
+    <hyperlink ref="J15" r:id="rId49" display="http://www.scu.edu/ecampus"/>
+    <hyperlink ref="E28" r:id="rId50"/>
+    <hyperlink ref="E31" r:id="rId51"/>
+    <hyperlink ref="K25" r:id="rId52" display="http://my.sjsu.edu/"/>
+    <hyperlink ref="K13" r:id="rId53"/>
+    <hyperlink ref="J32" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2643,6 +2789,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/美国大学信息/2015CS学校整理.xlsx
+++ b/美国大学信息/2015CS学校整理.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="153">
   <si>
     <t>http://financialaid.ncsu.edu/</t>
   </si>
@@ -27,9 +27,6 @@
     <t>http://www.unc.edu/</t>
   </si>
   <si>
-    <t>https://www.tamu.edu/</t>
-  </si>
-  <si>
     <t>http://bursar.colorado.edu/</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>https://www.umich.edu/</t>
   </si>
   <si>
-    <t>Georgia Institute of Technology(gatech)</t>
-  </si>
-  <si>
     <t>http://www.finaid.gatech.edu/</t>
   </si>
   <si>
@@ -156,12 +150,6 @@
     <t>https://www.cs.wisc.edu/academics/graduate-programs/guidebook/ms-requirements</t>
   </si>
   <si>
-    <t xml:space="preserve"> University of Wisconsin (wisc)</t>
-  </si>
-  <si>
-    <t>University of California—​Los Angeles(UCLA)</t>
-  </si>
-  <si>
     <t>CMU-MSIT-SE</t>
   </si>
   <si>
@@ -194,10 +182,6 @@
   </si>
   <si>
     <t>North Caronina State University(NCSU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texas A&amp;M University(TAMU)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -474,70 +458,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Northwestern(NWU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(UIUC)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.grad.illinois.edu/admissions/apply/</t>
+  </si>
+  <si>
+    <t>University of Florida(UFL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cise.ufl.edu/admissions/grad/apply</t>
+  </si>
+  <si>
+    <t>D2ZE5885675</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nxz160630</t>
+  </si>
+  <si>
+    <t>https://you.usc.edu/login/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sis-portal-prod.utdallas.edu/psp/DEPPRD/EMPLOYEE/EMPL_UTD/h/?tab=PAPP_GUEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>011428781 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Pennsylvania State University(PSU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Wisconsin—​Madison </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Texas - Austin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSUEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Central Florida(UCF)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(umass)University of Massachusetts Amherst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wpi(Worcester Polytechnic Institute)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology(gatech)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas A&amp;M University(TAMU)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhan13900</t>
+  </si>
+  <si>
+    <t>https://www.applytexas.org/adappc/gen/c_start.WBX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Wisconsin (wisc)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California—​Los Angeles(UCLA)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>126004696 </t>
+  </si>
+  <si>
+    <t>http://www.cs.jhu.edu/graduate-studies/graduate-admissions-information/</t>
+  </si>
+  <si>
+    <t>http://applicant.tamu.edu</t>
+  </si>
+  <si>
+    <t>https://apply2.cse.tamu.edu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fynyu443</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nz738</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://home.nyu.edu/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://admissions.gs.ucdavis.edu/status.cfm?eid=4BF349CE-C06C-4EF7-8E749DB0667B85AE#/</t>
+  </si>
+  <si>
     <t>http://my.sjsu.edu  </t>
-  </si>
-  <si>
-    <t>Northwestern(NWU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(UIUC)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.grad.illinois.edu/admissions/apply/</t>
-  </si>
-  <si>
-    <t>University of Florida(UFL)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cise.ufl.edu/admissions/grad/apply</t>
-  </si>
-  <si>
-    <t>D2ZE5885675</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nxz160630</t>
-  </si>
-  <si>
-    <t>https://you.usc.edu/login/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.applytexas.org/adappc/gen/c_start.WBX</t>
-  </si>
-  <si>
-    <t>https://sis-portal-prod.utdallas.edu/psp/DEPPRD/EMPLOYEE/EMPL_UTD/h/?tab=PAPP_GUEST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>011428781 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Pennsylvania State University(PSU)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Wisconsin—​Madison </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Texas - Austin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSUEB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Central Florida(UCF)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(umass)University of Massachusetts Amherst</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +585,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +655,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF132E5E"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -640,7 +690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +752,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -713,15 +763,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -765,9 +806,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -816,36 +854,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -854,6 +862,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1160,25 +1206,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK66"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="29" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -1186,29 +1232,41 @@
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8">
-        <v>65895</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="24">
-        <v>42352</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="B2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="23">
+        <v>29396</v>
+      </c>
+      <c r="D2" s="24">
+        <v>36906</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="20">
+        <v>42353</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1229,61 +1287,53 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B3" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="27">
-        <v>29396</v>
-      </c>
-      <c r="D3" s="28">
-        <v>36906</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>74</v>
+    <row r="3" spans="1:37" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24">
+        <v>54402</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="24">
+        <v>105</v>
+      </c>
+      <c r="G3" s="21">
         <v>42353</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>104</v>
-      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28">
-        <v>54402</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5">
+        <v>41603</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="21">
         <v>42353</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1308,23 +1358,19 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:37" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8">
-        <v>41603</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="B5" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="25">
+      <c r="G5" s="20">
         <v>42353</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1338,17 +1384,21 @@
     </row>
     <row r="6" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5">
+        <v>42007</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>42353</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1380,33 +1430,35 @@
       <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8">
-        <v>42007</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="25">
-        <v>42353</v>
+      <c r="B7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="G7" s="20">
+        <v>42360</v>
       </c>
     </row>
     <row r="8" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="24">
-        <v>42360</v>
-      </c>
-      <c r="H8" s="33"/>
+      <c r="B8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24">
+        <v>65895</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="20">
+        <v>42368</v>
+      </c>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1416,7 +1468,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="R8" s="22"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1438,44 +1490,42 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28">
-        <v>65895</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="24">
-        <v>42368</v>
-      </c>
-      <c r="R9" s="26"/>
-    </row>
-    <row r="10" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="D9" s="31"/>
+      <c r="E9" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="20">
+        <v>42372</v>
+      </c>
+      <c r="H9" s="29">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36" t="s">
-        <v>69</v>
+      <c r="B10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="7">
+        <v>33386</v>
+      </c>
+      <c r="D10" s="5">
+        <v>47548</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="24">
-        <v>42372</v>
-      </c>
-      <c r="H10" s="33">
-        <v>89</v>
-      </c>
+      <c r="G10" s="20">
+        <v>42374</v>
+      </c>
+      <c r="H10" s="29"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1488,125 +1538,120 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="10">
-        <v>33386</v>
-      </c>
-      <c r="D11" s="8">
-        <v>47548</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="24">
-        <v>42374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="20">
+        <v>42384</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="37" t="s">
-        <v>118</v>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24">
+        <v>57216</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="24">
+        <v>78</v>
+      </c>
+      <c r="G12" s="20">
         <v>42384</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7460027675</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28">
-        <v>57216</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="24">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <v>31502</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="20">
         <v>42384</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="1">
-        <v>7460027675</v>
-      </c>
-      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="C14" s="7">
+        <v>29607</v>
+      </c>
       <c r="D14" s="5">
-        <v>31502</v>
+        <v>34982</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="24">
+        <v>2</v>
+      </c>
+      <c r="G14" s="20">
         <v>42384</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B15" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28">
+    <row r="15" spans="1:37" s="22" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46">
         <v>39822</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="24">
+      <c r="E15" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="49">
         <v>42384</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>125</v>
+      <c r="H15" s="50"/>
+      <c r="I15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>120</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1615,74 +1660,65 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:37" s="26" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:37" ht="18.75" customHeight="1" thickBot="1">
       <c r="B16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="22">
-        <v>29607</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>26044</v>
       </c>
       <c r="D16" s="5">
-        <v>34982</v>
+        <v>48604</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="24">
+        <v>5</v>
+      </c>
+      <c r="G16" s="20">
         <v>42384</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:37" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="22">
-        <v>26044</v>
-      </c>
-      <c r="D17" s="5">
-        <v>48604</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="24">
+      <c r="B17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="28">
+        <v>28211</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="20">
         <v>42384</v>
       </c>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B18" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="32">
-        <v>28211</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="24">
+      <c r="I17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R17" s="22"/>
+    </row>
+    <row r="18" spans="1:37" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <v>53284</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="20">
         <v>42384</v>
       </c>
-      <c r="H18" s="33"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1690,217 +1726,217 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8">
-        <v>53284</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="24">
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7">
+        <v>38990</v>
+      </c>
+      <c r="D19" s="5">
+        <v>40594</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="20">
         <v>42384</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="10">
-        <v>38990</v>
-      </c>
-      <c r="D20" s="8">
-        <v>40594</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="24">
+      <c r="B20" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="G20" s="20">
         <v>42384</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="G21" s="24">
-        <v>42384</v>
-      </c>
+    <row r="21" spans="1:37" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="B21" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="20">
+        <v>42387</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" s="22"/>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="24">
-        <v>42387</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="B22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="23">
+        <v>39880</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="34">
+        <v>42399</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
+        <v>38733</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="20">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24">
+        <v>27493</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="R22" s="26"/>
-    </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="27">
-        <v>39880</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="38">
-        <v>42399</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5">
-        <v>38733</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="24">
-        <v>42400</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:37" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B25" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28">
-        <v>27493</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="24">
+      <c r="G24" s="20">
         <v>42401</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="1:37" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30075</v>
+      </c>
+      <c r="D25" s="5">
+        <v>29310</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="20">
+        <v>42401</v>
+      </c>
+      <c r="H25" s="29"/>
       <c r="I25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="K25" s="52" t="s">
-        <v>126</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="22">
-        <v>30075</v>
-      </c>
-      <c r="D26" s="5">
-        <v>29310</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="24">
-        <v>42401</v>
+      <c r="B26" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24">
+        <v>56686</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="20">
+        <v>42415</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B27" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42">
-        <v>29758</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="25">
-        <v>42430</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="20">
+        <v>42415</v>
+      </c>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43" t="s">
-        <v>122</v>
-      </c>
+      <c r="B28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
+        <v>65895</v>
+      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="24">
+      <c r="G28" s="20">
         <v>42430</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="40" t="s">
-        <v>119</v>
-      </c>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1930,44 +1966,53 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="24">
+      <c r="B29" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24">
+        <v>29758</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="21">
         <v>42430</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" s="26"/>
+      <c r="H29" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="30" spans="1:37" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="41" t="s">
+        <v>117</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="24">
-        <v>42444</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="G30" s="20">
+        <v>42430</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1997,51 +2042,44 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42">
-        <v>56686</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="24">
-        <v>42475</v>
+      <c r="B31" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="20">
+        <v>42430</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="R31" s="22"/>
     </row>
     <row r="32" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28">
-        <v>31000</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="24">
-        <v>42491</v>
-      </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="B32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="20">
+        <v>42444</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2071,66 +2109,76 @@
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="5">
-        <v>60000</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="24">
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="G33" s="20">
+        <v>42444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B34" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24">
+        <v>31000</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="20">
         <v>42491</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5">
-        <v>41148</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="24">
-        <v>42491</v>
-      </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B35" s="4" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="G35" s="24">
+      <c r="D35" s="5">
+        <v>60000</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="20">
         <v>42491</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="46"/>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5">
+        <v>41148</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="24">
+      <c r="G36" s="20">
         <v>42491</v>
       </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2161,21 +2209,19 @@
     </row>
     <row r="37" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="42">
-        <v>46258</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>22</v>
-      </c>
+      <c r="B37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="24">
-        <v>42522</v>
-      </c>
-      <c r="H37" s="33"/>
+      <c r="G37" s="20">
+        <v>42491</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2208,17 +2254,21 @@
     </row>
     <row r="38" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="1"/>
+      <c r="G38" s="20">
+        <v>42491</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2247,173 +2297,135 @@
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
     </row>
-    <row r="39" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="7" t="s">
-        <v>47</v>
+    <row r="39" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B39" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
+        <v>46258</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="20">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+    </row>
+    <row r="41" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5">
         <v>65895</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-    </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B41" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8">
+      <c r="E41" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5">
         <v>22891</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B42" s="7" t="s">
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5">
+        <v>30000</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8">
-        <v>30000</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="7" t="s">
+    </row>
+    <row r="45" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="7">
+        <v>21986</v>
+      </c>
+      <c r="D45" s="5">
+        <v>34400</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="10">
-        <v>21986</v>
-      </c>
-      <c r="D43" s="8">
-        <v>34400</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B44" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8">
-        <v>38140</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8">
-        <v>45000</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
     </row>
     <row r="46" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="1"/>
       <c r="B46" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5">
-        <v>45972</v>
+        <v>38140</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="33" t="s">
-        <v>124</v>
-      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2444,332 +2456,389 @@
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" thickBot="1">
-      <c r="B47" s="7" t="s">
+    <row r="47" spans="1:37" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5">
+        <v>45000</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+    </row>
+    <row r="48" spans="1:37" ht="15" customHeight="1" thickBot="1">
+      <c r="B48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5">
+        <v>45972</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="22.5" customHeight="1">
+      <c r="B49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="10">
+        <v>48737</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" ht="17.25">
+      <c r="B50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="11">
+        <v>21311</v>
+      </c>
+      <c r="D50" s="10">
+        <v>50360</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="30.75">
+      <c r="B51" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="10">
+        <v>58606</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8">
-        <v>48737</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" ht="36.75" customHeight="1">
-      <c r="B48" s="12" t="s">
+    </row>
+    <row r="52" spans="1:37" ht="17.25">
+      <c r="B52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="11">
+        <v>43024</v>
+      </c>
+      <c r="D52" s="10">
+        <v>62146</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" s="2" customFormat="1" ht="60.75">
+      <c r="A53" s="1"/>
+      <c r="B53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="10">
+        <v>63259</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+    </row>
+    <row r="54" spans="1:37" ht="17.25">
+      <c r="B54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="10">
+        <v>64840</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" ht="45.75">
+      <c r="B55" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="10">
+        <v>67044</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" ht="69">
+      <c r="B56" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" ht="17.25">
+      <c r="B57" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="11">
+        <v>48922</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:37" s="2" customFormat="1" ht="17.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+    </row>
+    <row r="59" spans="1:37" ht="17.25">
+      <c r="B59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:37" ht="17.25">
+      <c r="B60" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="14">
-        <v>21311</v>
-      </c>
-      <c r="D48" s="13">
-        <v>50360</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37" ht="34.5">
-      <c r="B49" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="13">
-        <v>58606</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37" ht="17.25">
-      <c r="B50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="14">
-        <v>43024</v>
-      </c>
-      <c r="D50" s="13">
-        <v>62146</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" ht="60.75">
-      <c r="B51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="13">
-        <v>63259</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" s="2" customFormat="1" ht="17.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="13">
-        <v>64840</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-    </row>
-    <row r="53" spans="1:37" ht="45.75">
-      <c r="B53" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="13">
-        <v>67044</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37" ht="69">
-      <c r="B54" s="12" t="s">
+      <c r="C60" s="11">
+        <v>46408</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:37" ht="17.25">
+      <c r="B61" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:37" ht="17.25">
+      <c r="B62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:37" ht="17.25">
-      <c r="B55" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:37" ht="17.25">
-      <c r="B56" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="14">
-        <v>48922</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:37" s="2" customFormat="1" ht="17.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-    </row>
-    <row r="58" spans="1:37" ht="17.25">
-      <c r="B58" s="12" t="s">
+    </row>
+    <row r="63" spans="1:37" ht="17.25">
+      <c r="B63" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-    </row>
-    <row r="59" spans="1:37" ht="17.25">
-      <c r="B59" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="14">
-        <v>46408</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-    </row>
-    <row r="60" spans="1:37" ht="17.25">
-      <c r="B60" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="1:37" ht="17.25">
-      <c r="B61" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37" ht="17.25">
-      <c r="B62" s="11" t="s">
+      <c r="C63" s="12">
+        <v>28425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" ht="17.25">
+      <c r="B64" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="15">
-        <v>28425</v>
-      </c>
-    </row>
-    <row r="63" spans="1:37" ht="17.25">
-      <c r="B63" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="15">
+      <c r="C64" s="12">
         <v>23680</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="17.25">
-      <c r="B64" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="2:2" ht="17.25">
-      <c r="B65" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="17.25">
-      <c r="B66" s="11" t="s">
-        <v>60</v>
+    <row r="65" spans="2:5" ht="17.25">
+      <c r="B65" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="2:5" ht="17.25">
+      <c r="B66" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="17.25">
+      <c r="B67" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R1">
-    <sortState ref="A2:R66">
+    <sortState ref="A2:R67">
       <sortCondition ref="G1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E48" r:id="rId2"/>
-    <hyperlink ref="E27" r:id="rId3"/>
-    <hyperlink ref="E16" r:id="rId4"/>
-    <hyperlink ref="E11" r:id="rId5"/>
-    <hyperlink ref="E17" r:id="rId6" display="https://students.asu.edu/"/>
-    <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E42" r:id="rId8"/>
-    <hyperlink ref="E41" r:id="rId9"/>
-    <hyperlink ref="E52" r:id="rId10" display="https://www.smu.edu/"/>
-    <hyperlink ref="E43" r:id="rId11"/>
-    <hyperlink ref="E45" r:id="rId12" display="https://uwaterloo.ca/"/>
-    <hyperlink ref="E50" r:id="rId13"/>
-    <hyperlink ref="E46" r:id="rId14"/>
-    <hyperlink ref="E34" r:id="rId15"/>
-    <hyperlink ref="E37" r:id="rId16"/>
-    <hyperlink ref="E51" r:id="rId17"/>
-    <hyperlink ref="E53" r:id="rId18"/>
-    <hyperlink ref="E7" r:id="rId19"/>
-    <hyperlink ref="E24" r:id="rId20"/>
-    <hyperlink ref="E20" r:id="rId21"/>
-    <hyperlink ref="E44" r:id="rId22"/>
-    <hyperlink ref="E47" r:id="rId23" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
-    <hyperlink ref="E49" r:id="rId24"/>
-    <hyperlink ref="E39" r:id="rId25"/>
-    <hyperlink ref="E10" r:id="rId26"/>
-    <hyperlink ref="E3" r:id="rId27"/>
-    <hyperlink ref="E9" r:id="rId28"/>
-    <hyperlink ref="E13" r:id="rId29"/>
-    <hyperlink ref="J29" r:id="rId30"/>
-    <hyperlink ref="J13" r:id="rId31"/>
-    <hyperlink ref="E22" r:id="rId32"/>
-    <hyperlink ref="E18" r:id="rId33"/>
-    <hyperlink ref="E29" r:id="rId34"/>
-    <hyperlink ref="E32" r:id="rId35"/>
-    <hyperlink ref="E33" r:id="rId36"/>
-    <hyperlink ref="E4" r:id="rId37"/>
-    <hyperlink ref="E15" r:id="rId38"/>
-    <hyperlink ref="J22" r:id="rId39"/>
-    <hyperlink ref="K22" r:id="rId40"/>
-    <hyperlink ref="K3" r:id="rId41"/>
-    <hyperlink ref="E25" r:id="rId42"/>
-    <hyperlink ref="I12" r:id="rId43"/>
-    <hyperlink ref="E23" r:id="rId44"/>
-    <hyperlink ref="J23" r:id="rId45"/>
-    <hyperlink ref="E12" r:id="rId46"/>
-    <hyperlink ref="J28" r:id="rId47"/>
-    <hyperlink ref="J3" r:id="rId48" location="recommender"/>
-    <hyperlink ref="J15" r:id="rId49" display="http://www.scu.edu/ecampus"/>
-    <hyperlink ref="E28" r:id="rId50"/>
-    <hyperlink ref="E31" r:id="rId51"/>
-    <hyperlink ref="K25" r:id="rId52" display="http://my.sjsu.edu/"/>
-    <hyperlink ref="K13" r:id="rId53"/>
-    <hyperlink ref="J32" r:id="rId54"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E50" r:id="rId2"/>
+    <hyperlink ref="E14" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E16" r:id="rId5" display="https://students.asu.edu/"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E44" r:id="rId7"/>
+    <hyperlink ref="E43" r:id="rId8"/>
+    <hyperlink ref="E54" r:id="rId9" display="https://www.smu.edu/"/>
+    <hyperlink ref="E45" r:id="rId10"/>
+    <hyperlink ref="E47" r:id="rId11" display="https://uwaterloo.ca/"/>
+    <hyperlink ref="E52" r:id="rId12"/>
+    <hyperlink ref="E48" r:id="rId13"/>
+    <hyperlink ref="E36" r:id="rId14"/>
+    <hyperlink ref="E39" r:id="rId15"/>
+    <hyperlink ref="E53" r:id="rId16"/>
+    <hyperlink ref="E55" r:id="rId17"/>
+    <hyperlink ref="E6" r:id="rId18"/>
+    <hyperlink ref="E23" r:id="rId19"/>
+    <hyperlink ref="E19" r:id="rId20"/>
+    <hyperlink ref="E46" r:id="rId21"/>
+    <hyperlink ref="E49" r:id="rId22" location="GRAD12" display="http://sfs.virginia.edu/cost/14-15 - GRAD12"/>
+    <hyperlink ref="E51" r:id="rId23"/>
+    <hyperlink ref="E41" r:id="rId24"/>
+    <hyperlink ref="E9" r:id="rId25"/>
+    <hyperlink ref="E2" r:id="rId26"/>
+    <hyperlink ref="E8" r:id="rId27"/>
+    <hyperlink ref="E12" r:id="rId28"/>
+    <hyperlink ref="J31" r:id="rId29"/>
+    <hyperlink ref="J12" r:id="rId30"/>
+    <hyperlink ref="E21" r:id="rId31"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="E31" r:id="rId33"/>
+    <hyperlink ref="E34" r:id="rId34"/>
+    <hyperlink ref="E35" r:id="rId35"/>
+    <hyperlink ref="E3" r:id="rId36"/>
+    <hyperlink ref="E15" r:id="rId37"/>
+    <hyperlink ref="J21" r:id="rId38"/>
+    <hyperlink ref="K21" r:id="rId39"/>
+    <hyperlink ref="K2" r:id="rId40"/>
+    <hyperlink ref="E24" r:id="rId41"/>
+    <hyperlink ref="I11" r:id="rId42"/>
+    <hyperlink ref="E22" r:id="rId43"/>
+    <hyperlink ref="J22" r:id="rId44"/>
+    <hyperlink ref="E11" r:id="rId45"/>
+    <hyperlink ref="J30" r:id="rId46"/>
+    <hyperlink ref="J2" r:id="rId47" location="recommender"/>
+    <hyperlink ref="J15" r:id="rId48" display="http://www.scu.edu/ecampus"/>
+    <hyperlink ref="E30" r:id="rId49"/>
+    <hyperlink ref="E26" r:id="rId50"/>
+    <hyperlink ref="K24" r:id="rId51"/>
+    <hyperlink ref="K12" r:id="rId52"/>
+    <hyperlink ref="J34" r:id="rId53"/>
+    <hyperlink ref="E29" r:id="rId54"/>
+    <hyperlink ref="J29" r:id="rId55" display="http://applicant.tamu.edu/"/>
+    <hyperlink ref="H29" r:id="rId56"/>
+    <hyperlink ref="L26" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
 
